--- a/Data sets/Monthly RBA cash rate.xlsx
+++ b/Data sets/Monthly RBA cash rate.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A083E6-BEC4-4B1A-85F7-84285DFB841B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841AA356-60DF-4CAE-AB1B-2608FA81F258}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="289" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,14 +15,14 @@
     <definedName name="FIRMMBAB30">Data!#REF!</definedName>
     <definedName name="FIRMMBAB90">Data!#REF!</definedName>
     <definedName name="FIRMMCRI">Data!#REF!</definedName>
-    <definedName name="FIRMMCRT">Data!$B$2:$B$578</definedName>
+    <definedName name="FIRMMCRT">Data!$B$2:$B$324</definedName>
     <definedName name="FIRMMOIS1">Data!#REF!</definedName>
     <definedName name="FIRMMOIS3">Data!#REF!</definedName>
     <definedName name="FIRMMOIS6">Data!#REF!</definedName>
     <definedName name="FIRMMTN1">Data!#REF!</definedName>
     <definedName name="FIRMMTN3">Data!#REF!</definedName>
     <definedName name="FIRMMTN6">Data!#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Data!$B$2:$B$578</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Data!$B$2:$B$324</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$A:$A,Data!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -603,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G710"/>
+  <dimension ref="A1:G542"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A333" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B361" sqref="B361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -626,9 +626,11 @@
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>25384</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>33116</v>
+      </c>
+      <c r="B2" s="4">
+        <v>14</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -637,9 +639,11 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>25415</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>33146</v>
+      </c>
+      <c r="B3" s="4">
+        <v>14</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -648,9 +652,11 @@
     </row>
     <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>25446</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>33177</v>
+      </c>
+      <c r="B4" s="4">
+        <v>13.434782608695652</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -659,9 +665,11 @@
     </row>
     <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>25476</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>33207</v>
+      </c>
+      <c r="B5" s="4">
+        <v>13</v>
+      </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -670,9 +678,11 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>25507</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>33238</v>
+      </c>
+      <c r="B6" s="4">
+        <v>12.578947368421053</v>
+      </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -681,9 +691,11 @@
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>25537</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>33269</v>
+      </c>
+      <c r="B7" s="4">
+        <v>12</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -692,9 +704,11 @@
     </row>
     <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>25568</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>33297</v>
+      </c>
+      <c r="B8" s="4">
+        <v>12</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -703,9 +717,11 @@
     </row>
     <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>25599</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>33328</v>
+      </c>
+      <c r="B9" s="4">
+        <v>12</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -714,9 +730,11 @@
     </row>
     <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>25627</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>33358</v>
+      </c>
+      <c r="B10" s="4">
+        <v>11.55</v>
+      </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -725,9 +743,11 @@
     </row>
     <row r="11" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>25658</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>33389</v>
+      </c>
+      <c r="B11" s="4">
+        <v>10.978260869565217</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -736,9 +756,11 @@
     </row>
     <row r="12" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>25688</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>33419</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10.5</v>
+      </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -747,9 +769,11 @@
     </row>
     <row r="13" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>25719</v>
-      </c>
-      <c r="B13" s="4"/>
+        <v>33450</v>
+      </c>
+      <c r="B13" s="4">
+        <v>10.5</v>
+      </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -758,9 +782,11 @@
     </row>
     <row r="14" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>25749</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>33481</v>
+      </c>
+      <c r="B14" s="4">
+        <v>10.5</v>
+      </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
@@ -769,9 +795,11 @@
     </row>
     <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>25780</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>33511</v>
+      </c>
+      <c r="B15" s="4">
+        <v>9.5476190476190474</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
@@ -780,9 +808,11 @@
     </row>
     <row r="16" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>25811</v>
-      </c>
-      <c r="B16" s="4"/>
+        <v>33542</v>
+      </c>
+      <c r="B16" s="4">
+        <v>9.5</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -791,9 +821,11 @@
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>25841</v>
-      </c>
-      <c r="B17" s="4"/>
+        <v>33572</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8.6428571428571423</v>
+      </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -802,9 +834,11 @@
     </row>
     <row r="18" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>25872</v>
-      </c>
-      <c r="B18" s="4"/>
+        <v>33603</v>
+      </c>
+      <c r="B18" s="4">
+        <v>8.5</v>
+      </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -813,9 +847,11 @@
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>25902</v>
-      </c>
-      <c r="B19" s="4"/>
+        <v>33634</v>
+      </c>
+      <c r="B19" s="4">
+        <v>7.6904761904761907</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -824,9 +860,11 @@
     </row>
     <row r="20" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>25933</v>
-      </c>
-      <c r="B20" s="4"/>
+        <v>33663</v>
+      </c>
+      <c r="B20" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
@@ -835,9 +873,11 @@
     </row>
     <row r="21" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>25964</v>
-      </c>
-      <c r="B21" s="4"/>
+        <v>33694</v>
+      </c>
+      <c r="B21" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -846,9 +886,11 @@
     </row>
     <row r="22" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>25992</v>
-      </c>
-      <c r="B22" s="4"/>
+        <v>33724</v>
+      </c>
+      <c r="B22" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -857,9 +899,11 @@
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>26023</v>
-      </c>
-      <c r="B23" s="4"/>
+        <v>33755</v>
+      </c>
+      <c r="B23" s="4">
+        <v>6.6428571428571432</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -868,9 +912,11 @@
     </row>
     <row r="24" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>26053</v>
-      </c>
-      <c r="B24" s="4"/>
+        <v>33785</v>
+      </c>
+      <c r="B24" s="4">
+        <v>6.5</v>
+      </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -879,9 +925,11 @@
     </row>
     <row r="25" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>26084</v>
-      </c>
-      <c r="B25" s="4"/>
+        <v>33816</v>
+      </c>
+      <c r="B25" s="4">
+        <v>5.9130434782608692</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -890,9 +938,11 @@
     </row>
     <row r="26" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>26114</v>
-      </c>
-      <c r="B26" s="4"/>
+        <v>33847</v>
+      </c>
+      <c r="B26" s="4">
+        <v>5.75</v>
+      </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -901,9 +951,11 @@
     </row>
     <row r="27" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>26145</v>
-      </c>
-      <c r="B27" s="4"/>
+        <v>33877</v>
+      </c>
+      <c r="B27" s="4">
+        <v>5.75</v>
+      </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -912,9 +964,11 @@
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>26176</v>
-      </c>
-      <c r="B28" s="4"/>
+        <v>33908</v>
+      </c>
+      <c r="B28" s="4">
+        <v>5.75</v>
+      </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -923,9 +977,11 @@
     </row>
     <row r="29" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>26206</v>
-      </c>
-      <c r="B29" s="4"/>
+        <v>33938</v>
+      </c>
+      <c r="B29" s="4">
+        <v>5.75</v>
+      </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -934,9 +990,11 @@
     </row>
     <row r="30" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>26237</v>
-      </c>
-      <c r="B30" s="4"/>
+        <v>33969</v>
+      </c>
+      <c r="B30" s="4">
+        <v>5.75</v>
+      </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -945,9 +1003,11 @@
     </row>
     <row r="31" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>26267</v>
-      </c>
-      <c r="B31" s="4"/>
+        <v>34000</v>
+      </c>
+      <c r="B31" s="4">
+        <v>5.75</v>
+      </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -956,9 +1016,11 @@
     </row>
     <row r="32" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>26298</v>
-      </c>
-      <c r="B32" s="4"/>
+        <v>34028</v>
+      </c>
+      <c r="B32" s="4">
+        <v>5.75</v>
+      </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -967,9 +1029,11 @@
     </row>
     <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>26329</v>
-      </c>
-      <c r="B33" s="4"/>
+        <v>34059</v>
+      </c>
+      <c r="B33" s="4">
+        <v>5.5978260869565215</v>
+      </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -978,9 +1042,11 @@
     </row>
     <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>26358</v>
-      </c>
-      <c r="B34" s="4"/>
+        <v>34089</v>
+      </c>
+      <c r="B34" s="4">
+        <v>5.25</v>
+      </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -989,9 +1055,11 @@
     </row>
     <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>26389</v>
-      </c>
-      <c r="B35" s="4"/>
+        <v>34120</v>
+      </c>
+      <c r="B35" s="4">
+        <v>5.25</v>
+      </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1000,9 +1068,11 @@
     </row>
     <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>26419</v>
-      </c>
-      <c r="B36" s="4"/>
+        <v>34150</v>
+      </c>
+      <c r="B36" s="4">
+        <v>5.25</v>
+      </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1011,9 +1081,11 @@
     </row>
     <row r="37" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
-        <v>26450</v>
-      </c>
-      <c r="B37" s="4"/>
+        <v>34181</v>
+      </c>
+      <c r="B37" s="4">
+        <v>5.2272727272727275</v>
+      </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1022,9 +1094,11 @@
     </row>
     <row r="38" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
-        <v>26480</v>
-      </c>
-      <c r="B38" s="4"/>
+        <v>34212</v>
+      </c>
+      <c r="B38" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1033,9 +1107,11 @@
     </row>
     <row r="39" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>26511</v>
-      </c>
-      <c r="B39" s="4"/>
+        <v>34242</v>
+      </c>
+      <c r="B39" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -1044,9 +1120,11 @@
     </row>
     <row r="40" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>26542</v>
-      </c>
-      <c r="B40" s="4"/>
+        <v>34273</v>
+      </c>
+      <c r="B40" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1055,9 +1133,11 @@
     </row>
     <row r="41" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>26572</v>
-      </c>
-      <c r="B41" s="4"/>
+        <v>34303</v>
+      </c>
+      <c r="B41" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -1066,9 +1146,11 @@
     </row>
     <row r="42" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>26603</v>
-      </c>
-      <c r="B42" s="4"/>
+        <v>34334</v>
+      </c>
+      <c r="B42" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -1077,9 +1159,11 @@
     </row>
     <row r="43" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>26633</v>
-      </c>
-      <c r="B43" s="4"/>
+        <v>34365</v>
+      </c>
+      <c r="B43" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -1088,9 +1172,11 @@
     </row>
     <row r="44" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>26664</v>
-      </c>
-      <c r="B44" s="4"/>
+        <v>34393</v>
+      </c>
+      <c r="B44" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -1099,9 +1185,11 @@
     </row>
     <row r="45" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>26695</v>
-      </c>
-      <c r="B45" s="4"/>
+        <v>34424</v>
+      </c>
+      <c r="B45" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -1110,9 +1198,11 @@
     </row>
     <row r="46" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>26723</v>
-      </c>
-      <c r="B46" s="4"/>
+        <v>34454</v>
+      </c>
+      <c r="B46" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -1121,9 +1211,11 @@
     </row>
     <row r="47" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>26754</v>
-      </c>
-      <c r="B47" s="4"/>
+        <v>34485</v>
+      </c>
+      <c r="B47" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -1132,9 +1224,11 @@
     </row>
     <row r="48" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>26784</v>
-      </c>
-      <c r="B48" s="4"/>
+        <v>34515</v>
+      </c>
+      <c r="B48" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -1143,9 +1237,11 @@
     </row>
     <row r="49" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>26815</v>
-      </c>
-      <c r="B49" s="4"/>
+        <v>34546</v>
+      </c>
+      <c r="B49" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -1154,9 +1250,11 @@
     </row>
     <row r="50" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
-        <v>26845</v>
-      </c>
-      <c r="B50" s="4"/>
+        <v>34577</v>
+      </c>
+      <c r="B50" s="4">
+        <v>5.1086956521739131</v>
+      </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -1165,9 +1263,11 @@
     </row>
     <row r="51" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>26876</v>
-      </c>
-      <c r="B51" s="4"/>
+        <v>34607</v>
+      </c>
+      <c r="B51" s="4">
+        <v>5.5</v>
+      </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -1176,9 +1276,11 @@
     </row>
     <row r="52" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>26907</v>
-      </c>
-      <c r="B52" s="4"/>
+        <v>34638</v>
+      </c>
+      <c r="B52" s="4">
+        <v>5.7857142857142856</v>
+      </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -1187,9 +1289,11 @@
     </row>
     <row r="53" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>26937</v>
-      </c>
-      <c r="B53" s="4"/>
+        <v>34668</v>
+      </c>
+      <c r="B53" s="4">
+        <v>6.5</v>
+      </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -1198,9 +1302,11 @@
     </row>
     <row r="54" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>26968</v>
-      </c>
-      <c r="B54" s="4"/>
+        <v>34699</v>
+      </c>
+      <c r="B54" s="4">
+        <v>7.05</v>
+      </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -1209,9 +1315,11 @@
     </row>
     <row r="55" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
-        <v>26998</v>
-      </c>
-      <c r="B55" s="4"/>
+        <v>34730</v>
+      </c>
+      <c r="B55" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -1220,9 +1328,11 @@
     </row>
     <row r="56" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>27029</v>
-      </c>
-      <c r="B56" s="4"/>
+        <v>34758</v>
+      </c>
+      <c r="B56" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -1231,9 +1341,11 @@
     </row>
     <row r="57" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>27060</v>
-      </c>
-      <c r="B57" s="4"/>
+        <v>34789</v>
+      </c>
+      <c r="B57" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -1242,9 +1354,11 @@
     </row>
     <row r="58" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>27088</v>
-      </c>
-      <c r="B58" s="4"/>
+        <v>34819</v>
+      </c>
+      <c r="B58" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -1253,9 +1367,11 @@
     </row>
     <row r="59" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>27119</v>
-      </c>
-      <c r="B59" s="4"/>
+        <v>34850</v>
+      </c>
+      <c r="B59" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -1264,9 +1380,11 @@
     </row>
     <row r="60" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>27149</v>
-      </c>
-      <c r="B60" s="4"/>
+        <v>34880</v>
+      </c>
+      <c r="B60" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -1275,9 +1393,11 @@
     </row>
     <row r="61" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
-        <v>27180</v>
-      </c>
-      <c r="B61" s="4"/>
+        <v>34911</v>
+      </c>
+      <c r="B61" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -1286,9 +1406,11 @@
     </row>
     <row r="62" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>27210</v>
-      </c>
-      <c r="B62" s="4"/>
+        <v>34942</v>
+      </c>
+      <c r="B62" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -1297,9 +1419,11 @@
     </row>
     <row r="63" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>27241</v>
-      </c>
-      <c r="B63" s="4"/>
+        <v>34972</v>
+      </c>
+      <c r="B63" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -1308,9 +1432,11 @@
     </row>
     <row r="64" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>27272</v>
-      </c>
-      <c r="B64" s="4"/>
+        <v>35003</v>
+      </c>
+      <c r="B64" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -1319,9 +1445,11 @@
     </row>
     <row r="65" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>27302</v>
-      </c>
-      <c r="B65" s="4"/>
+        <v>35033</v>
+      </c>
+      <c r="B65" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -1330,9 +1458,11 @@
     </row>
     <row r="66" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>27333</v>
-      </c>
-      <c r="B66" s="4"/>
+        <v>35064</v>
+      </c>
+      <c r="B66" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -1341,9 +1471,11 @@
     </row>
     <row r="67" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>27363</v>
-      </c>
-      <c r="B67" s="4"/>
+        <v>35095</v>
+      </c>
+      <c r="B67" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -1352,9 +1484,11 @@
     </row>
     <row r="68" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>27394</v>
-      </c>
-      <c r="B68" s="4"/>
+        <v>35124</v>
+      </c>
+      <c r="B68" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -1363,9 +1497,11 @@
     </row>
     <row r="69" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>27425</v>
-      </c>
-      <c r="B69" s="4"/>
+        <v>35155</v>
+      </c>
+      <c r="B69" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -1374,9 +1510,11 @@
     </row>
     <row r="70" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>27453</v>
-      </c>
-      <c r="B70" s="4"/>
+        <v>35185</v>
+      </c>
+      <c r="B70" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -1385,9 +1523,11 @@
     </row>
     <row r="71" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>27484</v>
-      </c>
-      <c r="B71" s="4"/>
+        <v>35216</v>
+      </c>
+      <c r="B71" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -1396,9 +1536,11 @@
     </row>
     <row r="72" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>27514</v>
-      </c>
-      <c r="B72" s="4"/>
+        <v>35246</v>
+      </c>
+      <c r="B72" s="4">
+        <v>7.5</v>
+      </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -1407,9 +1549,11 @@
     </row>
     <row r="73" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>27545</v>
-      </c>
-      <c r="B73" s="4"/>
+        <v>35277</v>
+      </c>
+      <c r="B73" s="4">
+        <v>7.4782608695652177</v>
+      </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -1418,9 +1562,11 @@
     </row>
     <row r="74" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>27575</v>
-      </c>
-      <c r="B74" s="4"/>
+        <v>35308</v>
+      </c>
+      <c r="B74" s="4">
+        <v>7</v>
+      </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -1429,9 +1575,11 @@
     </row>
     <row r="75" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>27606</v>
-      </c>
-      <c r="B75" s="4"/>
+        <v>35338</v>
+      </c>
+      <c r="B75" s="4">
+        <v>7</v>
+      </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -1440,9 +1588,11 @@
     </row>
     <row r="76" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>27637</v>
-      </c>
-      <c r="B76" s="4"/>
+        <v>35369</v>
+      </c>
+      <c r="B76" s="4">
+        <v>7</v>
+      </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -1451,9 +1601,11 @@
     </row>
     <row r="77" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>27667</v>
-      </c>
-      <c r="B77" s="4"/>
+        <v>35399</v>
+      </c>
+      <c r="B77" s="4">
+        <v>6.5714285714285712</v>
+      </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -1462,9 +1614,11 @@
     </row>
     <row r="78" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>27698</v>
-      </c>
-      <c r="B78" s="4"/>
+        <v>35430</v>
+      </c>
+      <c r="B78" s="4">
+        <v>6.1749999999999998</v>
+      </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -1473,9 +1627,11 @@
     </row>
     <row r="79" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>27728</v>
-      </c>
-      <c r="B79" s="4"/>
+        <v>35461</v>
+      </c>
+      <c r="B79" s="4">
+        <v>6</v>
+      </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -1484,9 +1640,11 @@
     </row>
     <row r="80" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>27759</v>
-      </c>
-      <c r="B80" s="4"/>
+        <v>35489</v>
+      </c>
+      <c r="B80" s="4">
+        <v>6</v>
+      </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -1495,9 +1653,11 @@
     </row>
     <row r="81" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>27790</v>
-      </c>
-      <c r="B81" s="4"/>
+        <v>35520</v>
+      </c>
+      <c r="B81" s="4">
+        <v>6</v>
+      </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -1506,9 +1666,11 @@
     </row>
     <row r="82" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>27819</v>
-      </c>
-      <c r="B82" s="4"/>
+        <v>35550</v>
+      </c>
+      <c r="B82" s="4">
+        <v>6</v>
+      </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -1517,9 +1679,11 @@
     </row>
     <row r="83" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>27850</v>
-      </c>
-      <c r="B83" s="4"/>
+        <v>35581</v>
+      </c>
+      <c r="B83" s="4">
+        <v>5.8636363636363633</v>
+      </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -1528,9 +1692,11 @@
     </row>
     <row r="84" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>27880</v>
-      </c>
-      <c r="B84" s="4"/>
+        <v>35611</v>
+      </c>
+      <c r="B84" s="4">
+        <v>5.5</v>
+      </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -1539,9 +1705,11 @@
     </row>
     <row r="85" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>27911</v>
-      </c>
-      <c r="B85" s="4"/>
+        <v>35642</v>
+      </c>
+      <c r="B85" s="4">
+        <v>5.4565217391304346</v>
+      </c>
       <c r="C85" s="8"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -1550,9 +1718,11 @@
     </row>
     <row r="86" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>27941</v>
-      </c>
-      <c r="B86" s="4"/>
+        <v>35673</v>
+      </c>
+      <c r="B86" s="4">
+        <v>5</v>
+      </c>
       <c r="C86" s="8"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -1561,9 +1731,11 @@
     </row>
     <row r="87" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>27972</v>
-      </c>
-      <c r="B87" s="4"/>
+        <v>35703</v>
+      </c>
+      <c r="B87" s="4">
+        <v>5</v>
+      </c>
       <c r="C87" s="8"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -1572,9 +1744,11 @@
     </row>
     <row r="88" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>28003</v>
-      </c>
-      <c r="B88" s="4"/>
+        <v>35734</v>
+      </c>
+      <c r="B88" s="4">
+        <v>5</v>
+      </c>
       <c r="C88" s="8"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -1583,9 +1757,11 @@
     </row>
     <row r="89" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>28033</v>
-      </c>
-      <c r="B89" s="4"/>
+        <v>35764</v>
+      </c>
+      <c r="B89" s="4">
+        <v>5</v>
+      </c>
       <c r="C89" s="8"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -1594,9 +1770,11 @@
     </row>
     <row r="90" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>28064</v>
-      </c>
-      <c r="B90" s="4"/>
+        <v>35795</v>
+      </c>
+      <c r="B90" s="4">
+        <v>5</v>
+      </c>
       <c r="C90" s="8"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -1605,9 +1783,11 @@
     </row>
     <row r="91" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>28094</v>
-      </c>
-      <c r="B91" s="4"/>
+        <v>35826</v>
+      </c>
+      <c r="B91" s="4">
+        <v>5</v>
+      </c>
       <c r="C91" s="8"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -1616,9 +1796,11 @@
     </row>
     <row r="92" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>28125</v>
-      </c>
-      <c r="B92" s="4"/>
+        <v>35854</v>
+      </c>
+      <c r="B92" s="4">
+        <v>5</v>
+      </c>
       <c r="C92" s="8"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -1627,9 +1809,11 @@
     </row>
     <row r="93" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>28156</v>
-      </c>
-      <c r="B93" s="4"/>
+        <v>35885</v>
+      </c>
+      <c r="B93" s="4">
+        <v>5</v>
+      </c>
       <c r="C93" s="8"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -1638,9 +1822,11 @@
     </row>
     <row r="94" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>28184</v>
-      </c>
-      <c r="B94" s="4"/>
+        <v>35915</v>
+      </c>
+      <c r="B94" s="4">
+        <v>5</v>
+      </c>
       <c r="C94" s="8"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -1649,9 +1835,11 @@
     </row>
     <row r="95" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>28215</v>
-      </c>
-      <c r="B95" s="4"/>
+        <v>35946</v>
+      </c>
+      <c r="B95" s="4">
+        <v>5</v>
+      </c>
       <c r="C95" s="8"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -1660,9 +1848,11 @@
     </row>
     <row r="96" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
-        <v>28245</v>
-      </c>
-      <c r="B96" s="4"/>
+        <v>35976</v>
+      </c>
+      <c r="B96" s="4">
+        <v>5</v>
+      </c>
       <c r="C96" s="8"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -1671,9 +1861,11 @@
     </row>
     <row r="97" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
-        <v>28276</v>
-      </c>
-      <c r="B97" s="4"/>
+        <v>36007</v>
+      </c>
+      <c r="B97" s="4">
+        <v>5</v>
+      </c>
       <c r="C97" s="8"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -1682,9 +1874,11 @@
     </row>
     <row r="98" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
-        <v>28306</v>
-      </c>
-      <c r="B98" s="4"/>
+        <v>36038</v>
+      </c>
+      <c r="B98" s="4">
+        <v>5</v>
+      </c>
       <c r="C98" s="8"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -1693,9 +1887,11 @@
     </row>
     <row r="99" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
-        <v>28337</v>
-      </c>
-      <c r="B99" s="4"/>
+        <v>36068</v>
+      </c>
+      <c r="B99" s="4">
+        <v>5</v>
+      </c>
       <c r="C99" s="8"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -1704,9 +1900,11 @@
     </row>
     <row r="100" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
-        <v>28368</v>
-      </c>
-      <c r="B100" s="4"/>
+        <v>36099</v>
+      </c>
+      <c r="B100" s="4">
+        <v>5</v>
+      </c>
       <c r="C100" s="8"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -1715,9 +1913,11 @@
     </row>
     <row r="101" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
-        <v>28398</v>
-      </c>
-      <c r="B101" s="4"/>
+        <v>36129</v>
+      </c>
+      <c r="B101" s="4">
+        <v>5</v>
+      </c>
       <c r="C101" s="8"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -1726,9 +1926,11 @@
     </row>
     <row r="102" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
-        <v>28429</v>
-      </c>
-      <c r="B102" s="4"/>
+        <v>36160</v>
+      </c>
+      <c r="B102" s="4">
+        <v>4.7619047619047619</v>
+      </c>
       <c r="C102" s="8"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -1737,9 +1939,11 @@
     </row>
     <row r="103" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
-        <v>28459</v>
-      </c>
-      <c r="B103" s="4"/>
+        <v>36191</v>
+      </c>
+      <c r="B103" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C103" s="8"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -1748,9 +1952,11 @@
     </row>
     <row r="104" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
-        <v>28490</v>
-      </c>
-      <c r="B104" s="4"/>
+        <v>36219</v>
+      </c>
+      <c r="B104" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C104" s="8"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -1759,9 +1965,11 @@
     </row>
     <row r="105" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
-        <v>28521</v>
-      </c>
-      <c r="B105" s="4"/>
+        <v>36250</v>
+      </c>
+      <c r="B105" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C105" s="8"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -1770,9 +1978,11 @@
     </row>
     <row r="106" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
-        <v>28549</v>
-      </c>
-      <c r="B106" s="4"/>
+        <v>36280</v>
+      </c>
+      <c r="B106" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C106" s="8"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -1781,9 +1991,11 @@
     </row>
     <row r="107" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>28580</v>
-      </c>
-      <c r="B107" s="4"/>
+        <v>36311</v>
+      </c>
+      <c r="B107" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C107" s="8"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -1792,9 +2004,11 @@
     </row>
     <row r="108" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>28610</v>
-      </c>
-      <c r="B108" s="4"/>
+        <v>36341</v>
+      </c>
+      <c r="B108" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C108" s="8"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -1803,9 +2017,11 @@
     </row>
     <row r="109" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>28641</v>
-      </c>
-      <c r="B109" s="4"/>
+        <v>36372</v>
+      </c>
+      <c r="B109" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C109" s="8"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -1814,9 +2030,11 @@
     </row>
     <row r="110" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>28671</v>
-      </c>
-      <c r="B110" s="4"/>
+        <v>36403</v>
+      </c>
+      <c r="B110" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C110" s="8"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -1825,9 +2043,11 @@
     </row>
     <row r="111" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>28702</v>
-      </c>
-      <c r="B111" s="4"/>
+        <v>36433</v>
+      </c>
+      <c r="B111" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C111" s="8"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -1836,9 +2056,11 @@
     </row>
     <row r="112" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>28733</v>
-      </c>
-      <c r="B112" s="4"/>
+        <v>36464</v>
+      </c>
+      <c r="B112" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C112" s="8"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -1847,9 +2069,11 @@
     </row>
     <row r="113" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>28763</v>
-      </c>
-      <c r="B113" s="4"/>
+        <v>36494</v>
+      </c>
+      <c r="B113" s="4">
+        <v>4.9772727272727275</v>
+      </c>
       <c r="C113" s="8"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -1858,9 +2082,11 @@
     </row>
     <row r="114" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>28794</v>
-      </c>
-      <c r="B114" s="4"/>
+        <v>36525</v>
+      </c>
+      <c r="B114" s="4">
+        <v>5</v>
+      </c>
       <c r="C114" s="8"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -1869,9 +2095,11 @@
     </row>
     <row r="115" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>28824</v>
-      </c>
-      <c r="B115" s="4"/>
+        <v>36556</v>
+      </c>
+      <c r="B115" s="4">
+        <v>5</v>
+      </c>
       <c r="C115" s="8"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -1880,9 +2108,11 @@
     </row>
     <row r="116" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>28855</v>
-      </c>
-      <c r="B116" s="4"/>
+        <v>36585</v>
+      </c>
+      <c r="B116" s="4">
+        <v>5.4761904761904763</v>
+      </c>
       <c r="C116" s="8"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -1891,9 +2121,11 @@
     </row>
     <row r="117" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>28886</v>
-      </c>
-      <c r="B117" s="4"/>
+        <v>36616</v>
+      </c>
+      <c r="B117" s="4">
+        <v>5.5</v>
+      </c>
       <c r="C117" s="8"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -1902,9 +2134,11 @@
     </row>
     <row r="118" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>28914</v>
-      </c>
-      <c r="B118" s="4"/>
+        <v>36646</v>
+      </c>
+      <c r="B118" s="4">
+        <v>5.7205882352941178</v>
+      </c>
       <c r="C118" s="8"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -1913,9 +2147,11 @@
     </row>
     <row r="119" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>28945</v>
-      </c>
-      <c r="B119" s="4"/>
+        <v>36677</v>
+      </c>
+      <c r="B119" s="4">
+        <v>5.9782608695652177</v>
+      </c>
       <c r="C119" s="8"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -1924,9 +2160,11 @@
     </row>
     <row r="120" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>28975</v>
-      </c>
-      <c r="B120" s="4"/>
+        <v>36707</v>
+      </c>
+      <c r="B120" s="4">
+        <v>6</v>
+      </c>
       <c r="C120" s="8"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -1935,9 +2173,11 @@
     </row>
     <row r="121" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>29006</v>
-      </c>
-      <c r="B121" s="4"/>
+        <v>36738</v>
+      </c>
+      <c r="B121" s="4">
+        <v>6</v>
+      </c>
       <c r="C121" s="8"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -1946,9 +2186,11 @@
     </row>
     <row r="122" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>29036</v>
-      </c>
-      <c r="B122" s="4"/>
+        <v>36769</v>
+      </c>
+      <c r="B122" s="4">
+        <v>6.2391304347826084</v>
+      </c>
       <c r="C122" s="8"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -1957,9 +2199,11 @@
     </row>
     <row r="123" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>29067</v>
-      </c>
-      <c r="B123" s="4"/>
+        <v>36799</v>
+      </c>
+      <c r="B123" s="4">
+        <v>6.25</v>
+      </c>
       <c r="C123" s="8"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -1968,9 +2212,11 @@
     </row>
     <row r="124" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>29098</v>
-      </c>
-      <c r="B124" s="4"/>
+        <v>36830</v>
+      </c>
+      <c r="B124" s="4">
+        <v>6.25</v>
+      </c>
       <c r="C124" s="8"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -1979,9 +2225,11 @@
     </row>
     <row r="125" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>29128</v>
-      </c>
-      <c r="B125" s="4"/>
+        <v>36860</v>
+      </c>
+      <c r="B125" s="4">
+        <v>6.25</v>
+      </c>
       <c r="C125" s="8"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -1990,9 +2238,11 @@
     </row>
     <row r="126" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>29159</v>
-      </c>
-      <c r="B126" s="4"/>
+        <v>36891</v>
+      </c>
+      <c r="B126" s="4">
+        <v>6.25</v>
+      </c>
       <c r="C126" s="8"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -2001,9 +2251,11 @@
     </row>
     <row r="127" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>29189</v>
-      </c>
-      <c r="B127" s="4"/>
+        <v>36922</v>
+      </c>
+      <c r="B127" s="4">
+        <v>6.25</v>
+      </c>
       <c r="C127" s="8"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -2012,9 +2264,11 @@
     </row>
     <row r="128" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>29220</v>
-      </c>
-      <c r="B128" s="4"/>
+        <v>36950</v>
+      </c>
+      <c r="B128" s="4">
+        <v>5.85</v>
+      </c>
       <c r="C128" s="8"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -2023,9 +2277,11 @@
     </row>
     <row r="129" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>29251</v>
-      </c>
-      <c r="B129" s="4"/>
+        <v>36981</v>
+      </c>
+      <c r="B129" s="4">
+        <v>5.5454545454545459</v>
+      </c>
       <c r="C129" s="8"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -2034,9 +2290,11 @@
     </row>
     <row r="130" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>29280</v>
-      </c>
-      <c r="B130" s="4"/>
+        <v>37011</v>
+      </c>
+      <c r="B130" s="4">
+        <v>5.0555555555555554</v>
+      </c>
       <c r="C130" s="8"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -2045,9 +2303,11 @@
     </row>
     <row r="131" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>29311</v>
-      </c>
-      <c r="B131" s="4"/>
+        <v>37042</v>
+      </c>
+      <c r="B131" s="4">
+        <v>5</v>
+      </c>
       <c r="C131" s="8"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -2056,9 +2316,11 @@
     </row>
     <row r="132" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>29341</v>
-      </c>
-      <c r="B132" s="4"/>
+        <v>37072</v>
+      </c>
+      <c r="B132" s="4">
+        <v>5</v>
+      </c>
       <c r="C132" s="8"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -2067,9 +2329,11 @@
     </row>
     <row r="133" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>29372</v>
-      </c>
-      <c r="B133" s="4"/>
+        <v>37103</v>
+      </c>
+      <c r="B133" s="4">
+        <v>5</v>
+      </c>
       <c r="C133" s="8"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -2078,9 +2342,11 @@
     </row>
     <row r="134" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>29402</v>
-      </c>
-      <c r="B134" s="4"/>
+        <v>37134</v>
+      </c>
+      <c r="B134" s="4">
+        <v>5</v>
+      </c>
       <c r="C134" s="8"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -2089,9 +2355,11 @@
     </row>
     <row r="135" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>29433</v>
-      </c>
-      <c r="B135" s="4"/>
+        <v>37164</v>
+      </c>
+      <c r="B135" s="4">
+        <v>4.7750000000000004</v>
+      </c>
       <c r="C135" s="8"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -2100,9 +2368,11 @@
     </row>
     <row r="136" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>29464</v>
-      </c>
-      <c r="B136" s="4"/>
+        <v>37195</v>
+      </c>
+      <c r="B136" s="4">
+        <v>4.5217391304347823</v>
+      </c>
       <c r="C136" s="8"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -2111,9 +2381,11 @@
     </row>
     <row r="137" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
-        <v>29494</v>
-      </c>
-      <c r="B137" s="4"/>
+        <v>37225</v>
+      </c>
+      <c r="B137" s="4">
+        <v>4.5</v>
+      </c>
       <c r="C137" s="8"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -2122,9 +2394,11 @@
     </row>
     <row r="138" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
-        <v>29525</v>
-      </c>
-      <c r="B138" s="4"/>
+        <v>37256</v>
+      </c>
+      <c r="B138" s="4">
+        <v>4.2763157894736841</v>
+      </c>
       <c r="C138" s="8"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -2133,9 +2407,11 @@
     </row>
     <row r="139" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
-        <v>29555</v>
-      </c>
-      <c r="B139" s="4"/>
+        <v>37287</v>
+      </c>
+      <c r="B139" s="4">
+        <v>4.25</v>
+      </c>
       <c r="C139" s="8"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -2144,9 +2420,11 @@
     </row>
     <row r="140" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
-        <v>29586</v>
-      </c>
-      <c r="B140" s="4"/>
+        <v>37315</v>
+      </c>
+      <c r="B140" s="4">
+        <v>4.25</v>
+      </c>
       <c r="C140" s="8"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -2155,9 +2433,11 @@
     </row>
     <row r="141" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
-        <v>29617</v>
-      </c>
-      <c r="B141" s="4"/>
+        <v>37346</v>
+      </c>
+      <c r="B141" s="4">
+        <v>4.25</v>
+      </c>
       <c r="C141" s="8"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -2166,9 +2446,11 @@
     </row>
     <row r="142" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
-        <v>29645</v>
-      </c>
-      <c r="B142" s="4"/>
+        <v>37376</v>
+      </c>
+      <c r="B142" s="4">
+        <v>4.25</v>
+      </c>
       <c r="C142" s="8"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -2177,9 +2459,11 @@
     </row>
     <row r="143" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
-        <v>29676</v>
-      </c>
-      <c r="B143" s="4"/>
+        <v>37407</v>
+      </c>
+      <c r="B143" s="4">
+        <v>4.4456521739130439</v>
+      </c>
       <c r="C143" s="8"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -2188,9 +2472,11 @@
     </row>
     <row r="144" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
-        <v>29706</v>
-      </c>
-      <c r="B144" s="4"/>
+        <v>37437</v>
+      </c>
+      <c r="B144" s="4">
+        <v>4.7236842105263159</v>
+      </c>
       <c r="C144" s="8"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -2199,9 +2485,11 @@
     </row>
     <row r="145" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
-        <v>29737</v>
-      </c>
-      <c r="B145" s="4"/>
+        <v>37468</v>
+      </c>
+      <c r="B145" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C145" s="8"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -2210,9 +2498,11 @@
     </row>
     <row r="146" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
-        <v>29767</v>
-      </c>
-      <c r="B146" s="4"/>
+        <v>37499</v>
+      </c>
+      <c r="B146" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C146" s="8"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -2221,9 +2511,11 @@
     </row>
     <row r="147" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
-        <v>29798</v>
-      </c>
-      <c r="B147" s="4"/>
+        <v>37529</v>
+      </c>
+      <c r="B147" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C147" s="8"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -2232,9 +2524,11 @@
     </row>
     <row r="148" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
-        <v>29829</v>
-      </c>
-      <c r="B148" s="4"/>
+        <v>37560</v>
+      </c>
+      <c r="B148" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C148" s="8"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -2243,9 +2537,11 @@
     </row>
     <row r="149" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
-        <v>29859</v>
-      </c>
-      <c r="B149" s="4"/>
+        <v>37590</v>
+      </c>
+      <c r="B149" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C149" s="8"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -2254,9 +2550,11 @@
     </row>
     <row r="150" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
-        <v>29890</v>
-      </c>
-      <c r="B150" s="4"/>
+        <v>37621</v>
+      </c>
+      <c r="B150" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C150" s="8"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -2265,9 +2563,11 @@
     </row>
     <row r="151" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
-        <v>29920</v>
-      </c>
-      <c r="B151" s="4"/>
+        <v>37652</v>
+      </c>
+      <c r="B151" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C151" s="8"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -2276,9 +2576,11 @@
     </row>
     <row r="152" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
-        <v>29951</v>
-      </c>
-      <c r="B152" s="4"/>
+        <v>37680</v>
+      </c>
+      <c r="B152" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C152" s="8"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -2287,9 +2589,11 @@
     </row>
     <row r="153" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
-        <v>29982</v>
-      </c>
-      <c r="B153" s="4"/>
+        <v>37711</v>
+      </c>
+      <c r="B153" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C153" s="8"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -2298,9 +2602,11 @@
     </row>
     <row r="154" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
-        <v>30010</v>
-      </c>
-      <c r="B154" s="4"/>
+        <v>37741</v>
+      </c>
+      <c r="B154" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C154" s="8"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -2309,9 +2615,11 @@
     </row>
     <row r="155" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
-        <v>30041</v>
-      </c>
-      <c r="B155" s="4"/>
+        <v>37772</v>
+      </c>
+      <c r="B155" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C155" s="8"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -2320,9 +2628,11 @@
     </row>
     <row r="156" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
-        <v>30071</v>
-      </c>
-      <c r="B156" s="4"/>
+        <v>37802</v>
+      </c>
+      <c r="B156" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C156" s="8"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -2331,9 +2641,11 @@
     </row>
     <row r="157" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>30102</v>
-      </c>
-      <c r="B157" s="4"/>
+        <v>37833</v>
+      </c>
+      <c r="B157" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C157" s="8"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -2342,9 +2654,11 @@
     </row>
     <row r="158" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>30132</v>
-      </c>
-      <c r="B158" s="4"/>
+        <v>37864</v>
+      </c>
+      <c r="B158" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C158" s="8"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -2353,9 +2667,11 @@
     </row>
     <row r="159" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
-        <v>30163</v>
-      </c>
-      <c r="B159" s="4"/>
+        <v>37894</v>
+      </c>
+      <c r="B159" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C159" s="8"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -2364,9 +2680,11 @@
     </row>
     <row r="160" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
-        <v>30194</v>
-      </c>
-      <c r="B160" s="4"/>
+        <v>37925</v>
+      </c>
+      <c r="B160" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C160" s="8"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -2375,9 +2693,11 @@
     </row>
     <row r="161" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
-        <v>30224</v>
-      </c>
-      <c r="B161" s="4"/>
+        <v>37955</v>
+      </c>
+      <c r="B161" s="4">
+        <v>4.9749999999999996</v>
+      </c>
       <c r="C161" s="8"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -2386,9 +2706,11 @@
     </row>
     <row r="162" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
-        <v>30255</v>
-      </c>
-      <c r="B162" s="4"/>
+        <v>37986</v>
+      </c>
+      <c r="B162" s="4">
+        <v>5.2261904761904763</v>
+      </c>
       <c r="C162" s="8"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -2397,9 +2719,11 @@
     </row>
     <row r="163" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
-        <v>30285</v>
-      </c>
-      <c r="B163" s="4"/>
+        <v>38017</v>
+      </c>
+      <c r="B163" s="4">
+        <v>5.25</v>
+      </c>
       <c r="C163" s="8"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -2408,9 +2732,11 @@
     </row>
     <row r="164" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
-        <v>30316</v>
-      </c>
-      <c r="B164" s="4"/>
+        <v>38046</v>
+      </c>
+      <c r="B164" s="4">
+        <v>5.25</v>
+      </c>
       <c r="C164" s="8"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -2419,9 +2745,11 @@
     </row>
     <row r="165" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
-        <v>30347</v>
-      </c>
-      <c r="B165" s="4"/>
+        <v>38077</v>
+      </c>
+      <c r="B165" s="4">
+        <v>5.25</v>
+      </c>
       <c r="C165" s="8"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -2430,9 +2758,11 @@
     </row>
     <row r="166" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
-        <v>30375</v>
-      </c>
-      <c r="B166" s="4"/>
+        <v>38107</v>
+      </c>
+      <c r="B166" s="4">
+        <v>5.25</v>
+      </c>
       <c r="C166" s="8"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -2441,9 +2771,11 @@
     </row>
     <row r="167" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
-        <v>30406</v>
-      </c>
-      <c r="B167" s="4"/>
+        <v>38138</v>
+      </c>
+      <c r="B167" s="4">
+        <v>5.25</v>
+      </c>
       <c r="C167" s="8"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -2452,9 +2784,11 @@
     </row>
     <row r="168" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
-        <v>30436</v>
-      </c>
-      <c r="B168" s="4"/>
+        <v>38168</v>
+      </c>
+      <c r="B168" s="4">
+        <v>5.25</v>
+      </c>
       <c r="C168" s="8"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -2463,9 +2797,11 @@
     </row>
     <row r="169" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
-        <v>30467</v>
-      </c>
-      <c r="B169" s="4"/>
+        <v>38199</v>
+      </c>
+      <c r="B169" s="4">
+        <v>5.25</v>
+      </c>
       <c r="C169" s="8"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -2474,9 +2810,11 @@
     </row>
     <row r="170" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
-        <v>30497</v>
-      </c>
-      <c r="B170" s="4"/>
+        <v>38230</v>
+      </c>
+      <c r="B170" s="4">
+        <v>5.25</v>
+      </c>
       <c r="C170" s="8"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -2485,9 +2823,11 @@
     </row>
     <row r="171" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
-        <v>30528</v>
-      </c>
-      <c r="B171" s="4"/>
+        <v>38260</v>
+      </c>
+      <c r="B171" s="4">
+        <v>5.25</v>
+      </c>
       <c r="C171" s="8"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -2496,9 +2836,11 @@
     </row>
     <row r="172" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
-        <v>30559</v>
-      </c>
-      <c r="B172" s="4"/>
+        <v>38291</v>
+      </c>
+      <c r="B172" s="4">
+        <v>5.25</v>
+      </c>
       <c r="C172" s="8"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -2507,9 +2849,11 @@
     </row>
     <row r="173" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <v>30589</v>
-      </c>
-      <c r="B173" s="4"/>
+        <v>38321</v>
+      </c>
+      <c r="B173" s="4">
+        <v>5.25</v>
+      </c>
       <c r="C173" s="8"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -2518,9 +2862,11 @@
     </row>
     <row r="174" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <v>30620</v>
-      </c>
-      <c r="B174" s="4"/>
+        <v>38352</v>
+      </c>
+      <c r="B174" s="4">
+        <v>5.25</v>
+      </c>
       <c r="C174" s="8"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -2529,9 +2875,11 @@
     </row>
     <row r="175" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <v>30650</v>
-      </c>
-      <c r="B175" s="4"/>
+        <v>38383</v>
+      </c>
+      <c r="B175" s="4">
+        <v>5.25</v>
+      </c>
       <c r="C175" s="8"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -2540,9 +2888,11 @@
     </row>
     <row r="176" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
-        <v>30681</v>
-      </c>
-      <c r="B176" s="4"/>
+        <v>38411</v>
+      </c>
+      <c r="B176" s="4">
+        <v>5.25</v>
+      </c>
       <c r="C176" s="8"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -2551,9 +2901,11 @@
     </row>
     <row r="177" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <v>30712</v>
-      </c>
-      <c r="B177" s="4"/>
+        <v>38442</v>
+      </c>
+      <c r="B177" s="4">
+        <v>5.4880952380952381</v>
+      </c>
       <c r="C177" s="8"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -2562,9 +2914,11 @@
     </row>
     <row r="178" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
-        <v>30741</v>
-      </c>
-      <c r="B178" s="4"/>
+        <v>38472</v>
+      </c>
+      <c r="B178" s="4">
+        <v>5.5</v>
+      </c>
       <c r="C178" s="8"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -2573,9 +2927,11 @@
     </row>
     <row r="179" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
-        <v>30772</v>
-      </c>
-      <c r="B179" s="4"/>
+        <v>38503</v>
+      </c>
+      <c r="B179" s="4">
+        <v>5.5</v>
+      </c>
       <c r="C179" s="8"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -2584,9 +2940,11 @@
     </row>
     <row r="180" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
-        <v>30802</v>
-      </c>
-      <c r="B180" s="4"/>
+        <v>38533</v>
+      </c>
+      <c r="B180" s="4">
+        <v>5.5</v>
+      </c>
       <c r="C180" s="8"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -2595,9 +2953,11 @@
     </row>
     <row r="181" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
-        <v>30833</v>
-      </c>
-      <c r="B181" s="4"/>
+        <v>38564</v>
+      </c>
+      <c r="B181" s="4">
+        <v>5.5</v>
+      </c>
       <c r="C181" s="8"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -2606,9 +2966,11 @@
     </row>
     <row r="182" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
-        <v>30863</v>
-      </c>
-      <c r="B182" s="4"/>
+        <v>38595</v>
+      </c>
+      <c r="B182" s="4">
+        <v>5.5</v>
+      </c>
       <c r="C182" s="8"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -2617,9 +2979,11 @@
     </row>
     <row r="183" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
-        <v>30894</v>
-      </c>
-      <c r="B183" s="4"/>
+        <v>38625</v>
+      </c>
+      <c r="B183" s="4">
+        <v>5.5</v>
+      </c>
       <c r="C183" s="8"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -2628,9 +2992,11 @@
     </row>
     <row r="184" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
-        <v>30925</v>
-      </c>
-      <c r="B184" s="4"/>
+        <v>38656</v>
+      </c>
+      <c r="B184" s="4">
+        <v>5.5</v>
+      </c>
       <c r="C184" s="8"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -2639,9 +3005,11 @@
     </row>
     <row r="185" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
-        <v>30955</v>
-      </c>
-      <c r="B185" s="4"/>
+        <v>38686</v>
+      </c>
+      <c r="B185" s="4">
+        <v>5.5</v>
+      </c>
       <c r="C185" s="8"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -2650,9 +3018,11 @@
     </row>
     <row r="186" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
-        <v>30986</v>
-      </c>
-      <c r="B186" s="4"/>
+        <v>38717</v>
+      </c>
+      <c r="B186" s="4">
+        <v>5.5</v>
+      </c>
       <c r="C186" s="8"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -2661,9 +3031,11 @@
     </row>
     <row r="187" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
-        <v>31016</v>
-      </c>
-      <c r="B187" s="4"/>
+        <v>38748</v>
+      </c>
+      <c r="B187" s="4">
+        <v>5.5</v>
+      </c>
       <c r="C187" s="8"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -2672,9 +3044,11 @@
     </row>
     <row r="188" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
-        <v>31047</v>
-      </c>
-      <c r="B188" s="4"/>
+        <v>38776</v>
+      </c>
+      <c r="B188" s="4">
+        <v>5.5</v>
+      </c>
       <c r="C188" s="8"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -2683,9 +3057,11 @@
     </row>
     <row r="189" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
-        <v>31078</v>
-      </c>
-      <c r="B189" s="4"/>
+        <v>38807</v>
+      </c>
+      <c r="B189" s="4">
+        <v>5.5</v>
+      </c>
       <c r="C189" s="8"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -2694,9 +3070,11 @@
     </row>
     <row r="190" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
-        <v>31106</v>
-      </c>
-      <c r="B190" s="4"/>
+        <v>38837</v>
+      </c>
+      <c r="B190" s="4">
+        <v>5.5</v>
+      </c>
       <c r="C190" s="8"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -2705,9 +3083,11 @@
     </row>
     <row r="191" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
-        <v>31137</v>
-      </c>
-      <c r="B191" s="4"/>
+        <v>38868</v>
+      </c>
+      <c r="B191" s="4">
+        <v>5.7282608695652177</v>
+      </c>
       <c r="C191" s="8"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -2716,9 +3096,11 @@
     </row>
     <row r="192" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
-        <v>31167</v>
-      </c>
-      <c r="B192" s="4"/>
+        <v>38898</v>
+      </c>
+      <c r="B192" s="4">
+        <v>5.75</v>
+      </c>
       <c r="C192" s="8"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -2727,9 +3109,11 @@
     </row>
     <row r="193" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
-        <v>31198</v>
-      </c>
-      <c r="B193" s="4"/>
+        <v>38929</v>
+      </c>
+      <c r="B193" s="4">
+        <v>5.75</v>
+      </c>
       <c r="C193" s="8"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -2738,9 +3122,11 @@
     </row>
     <row r="194" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
-        <v>31228</v>
-      </c>
-      <c r="B194" s="4"/>
+        <v>38960</v>
+      </c>
+      <c r="B194" s="4">
+        <v>5.9891304347826084</v>
+      </c>
       <c r="C194" s="8"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -2749,9 +3135,11 @@
     </row>
     <row r="195" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
-        <v>31259</v>
-      </c>
-      <c r="B195" s="4"/>
+        <v>38990</v>
+      </c>
+      <c r="B195" s="4">
+        <v>6</v>
+      </c>
       <c r="C195" s="8"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -2760,9 +3148,11 @@
     </row>
     <row r="196" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
-        <v>31290</v>
-      </c>
-      <c r="B196" s="4"/>
+        <v>39021</v>
+      </c>
+      <c r="B196" s="4">
+        <v>6</v>
+      </c>
       <c r="C196" s="8"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -2771,9 +3161,11 @@
     </row>
     <row r="197" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
-        <v>31320</v>
-      </c>
-      <c r="B197" s="4"/>
+        <v>39051</v>
+      </c>
+      <c r="B197" s="4">
+        <v>6.1931818181818183</v>
+      </c>
       <c r="C197" s="8"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -2782,9 +3174,11 @@
     </row>
     <row r="198" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
-        <v>31351</v>
-      </c>
-      <c r="B198" s="4"/>
+        <v>39082</v>
+      </c>
+      <c r="B198" s="4">
+        <v>6.25</v>
+      </c>
       <c r="C198" s="8"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -2793,9 +3187,11 @@
     </row>
     <row r="199" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
-        <v>31381</v>
-      </c>
-      <c r="B199" s="4"/>
+        <v>39113</v>
+      </c>
+      <c r="B199" s="4">
+        <v>6.25</v>
+      </c>
       <c r="C199" s="8"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -2804,9 +3200,11 @@
     </row>
     <row r="200" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
-        <v>31412</v>
-      </c>
-      <c r="B200" s="4"/>
+        <v>39141</v>
+      </c>
+      <c r="B200" s="4">
+        <v>6.25</v>
+      </c>
       <c r="C200" s="8"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -2815,9 +3213,11 @@
     </row>
     <row r="201" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
-        <v>31443</v>
-      </c>
-      <c r="B201" s="4"/>
+        <v>39172</v>
+      </c>
+      <c r="B201" s="4">
+        <v>6.25</v>
+      </c>
       <c r="C201" s="8"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -2826,9 +3226,11 @@
     </row>
     <row r="202" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
-        <v>31471</v>
-      </c>
-      <c r="B202" s="4"/>
+        <v>39202</v>
+      </c>
+      <c r="B202" s="4">
+        <v>6.25</v>
+      </c>
       <c r="C202" s="8"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -2837,9 +3239,11 @@
     </row>
     <row r="203" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
-        <v>31502</v>
-      </c>
-      <c r="B203" s="4"/>
+        <v>39233</v>
+      </c>
+      <c r="B203" s="4">
+        <v>6.25</v>
+      </c>
       <c r="C203" s="8"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -2848,9 +3252,11 @@
     </row>
     <row r="204" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
-        <v>31532</v>
-      </c>
-      <c r="B204" s="4"/>
+        <v>39263</v>
+      </c>
+      <c r="B204" s="4">
+        <v>6.25</v>
+      </c>
       <c r="C204" s="8"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -2859,9 +3265,11 @@
     </row>
     <row r="205" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
-        <v>31563</v>
-      </c>
-      <c r="B205" s="4"/>
+        <v>39294</v>
+      </c>
+      <c r="B205" s="4">
+        <v>6.25</v>
+      </c>
       <c r="C205" s="8"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -2870,9 +3278,11 @@
     </row>
     <row r="206" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
-        <v>31593</v>
-      </c>
-      <c r="B206" s="4"/>
+        <v>39325</v>
+      </c>
+      <c r="B206" s="4">
+        <v>6.4545454545454541</v>
+      </c>
       <c r="C206" s="8"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -2881,9 +3291,11 @@
     </row>
     <row r="207" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
-        <v>31624</v>
-      </c>
-      <c r="B207" s="4"/>
+        <v>39355</v>
+      </c>
+      <c r="B207" s="4">
+        <v>6.5</v>
+      </c>
       <c r="C207" s="8"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -2892,9 +3304,11 @@
     </row>
     <row r="208" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
-        <v>31655</v>
-      </c>
-      <c r="B208" s="4"/>
+        <v>39386</v>
+      </c>
+      <c r="B208" s="4">
+        <v>6.5</v>
+      </c>
       <c r="C208" s="8"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -2903,9 +3317,11 @@
     </row>
     <row r="209" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
-        <v>31685</v>
-      </c>
-      <c r="B209" s="4"/>
+        <v>39416</v>
+      </c>
+      <c r="B209" s="4">
+        <v>6.704088101503987</v>
+      </c>
       <c r="C209" s="8"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -2914,9 +3330,11 @@
     </row>
     <row r="210" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
-        <v>31716</v>
-      </c>
-      <c r="B210" s="4"/>
+        <v>39447</v>
+      </c>
+      <c r="B210" s="4">
+        <v>6.748922534220462</v>
+      </c>
       <c r="C210" s="8"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -2925,9 +3343,11 @@
     </row>
     <row r="211" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
-        <v>31746</v>
-      </c>
-      <c r="B211" s="4"/>
+        <v>39478</v>
+      </c>
+      <c r="B211" s="4">
+        <v>6.7498302811884514</v>
+      </c>
       <c r="C211" s="8"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -2936,9 +3356,11 @@
     </row>
     <row r="212" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
-        <v>31777</v>
-      </c>
-      <c r="B212" s="4"/>
+        <v>39507</v>
+      </c>
+      <c r="B212" s="4">
+        <v>6.9642701148285182</v>
+      </c>
       <c r="C212" s="8"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -2947,9 +3369,11 @@
     </row>
     <row r="213" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
-        <v>31808</v>
-      </c>
-      <c r="B213" s="4"/>
+        <v>39538</v>
+      </c>
+      <c r="B213" s="4">
+        <v>7.2237239370006838</v>
+      </c>
       <c r="C213" s="8"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -2958,9 +3382,11 @@
     </row>
     <row r="214" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
-        <v>31836</v>
-      </c>
-      <c r="B214" s="4"/>
+        <v>39568</v>
+      </c>
+      <c r="B214" s="4">
+        <v>7.2497122614776925</v>
+      </c>
       <c r="C214" s="8"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -2969,9 +3395,11 @@
     </row>
     <row r="215" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
-        <v>31867</v>
-      </c>
-      <c r="B215" s="4"/>
+        <v>39599</v>
+      </c>
+      <c r="B215" s="4">
+        <v>7.249974472248593</v>
+      </c>
       <c r="C215" s="8"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -2980,9 +3408,11 @@
     </row>
     <row r="216" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
-        <v>31897</v>
-      </c>
-      <c r="B216" s="4"/>
+        <v>39629</v>
+      </c>
+      <c r="B216" s="4">
+        <v>7.2499874160159168</v>
+      </c>
       <c r="C216" s="8"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -2991,9 +3421,11 @@
     </row>
     <row r="217" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
-        <v>31928</v>
-      </c>
-      <c r="B217" s="4"/>
+        <v>39660</v>
+      </c>
+      <c r="B217" s="4">
+        <v>7.2500167539868423</v>
+      </c>
       <c r="C217" s="8"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -3002,9 +3434,11 @@
     </row>
     <row r="218" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
-        <v>31958</v>
-      </c>
-      <c r="B218" s="4"/>
+        <v>39691</v>
+      </c>
+      <c r="B218" s="4">
+        <v>7.2500020252139139</v>
+      </c>
       <c r="C218" s="8"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -3013,9 +3447,11 @@
     </row>
     <row r="219" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
-        <v>31989</v>
-      </c>
-      <c r="B219" s="4"/>
+        <v>39721</v>
+      </c>
+      <c r="B219" s="4">
+        <v>7.0227272727272725</v>
+      </c>
       <c r="C219" s="8"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -3024,9 +3460,11 @@
     </row>
     <row r="220" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
-        <v>32020</v>
-      </c>
-      <c r="B220" s="4"/>
+        <v>39752</v>
+      </c>
+      <c r="B220" s="4">
+        <v>6.1818181818181817</v>
+      </c>
       <c r="C220" s="8"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -3035,9 +3473,11 @@
     </row>
     <row r="221" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
-        <v>32050</v>
-      </c>
-      <c r="B221" s="4"/>
+        <v>39782</v>
+      </c>
+      <c r="B221" s="4">
+        <v>5.3251632919660352</v>
+      </c>
       <c r="C221" s="8"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -3046,9 +3486,11 @@
     </row>
     <row r="222" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
-        <v>32081</v>
-      </c>
-      <c r="B222" s="4"/>
+        <v>39813</v>
+      </c>
+      <c r="B222" s="4">
+        <v>4.345261211573237</v>
+      </c>
       <c r="C222" s="8"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -3057,9 +3499,11 @@
     </row>
     <row r="223" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
-        <v>32111</v>
-      </c>
-      <c r="B223" s="4"/>
+        <v>39844</v>
+      </c>
+      <c r="B223" s="4">
+        <v>4.2500005432814199</v>
+      </c>
       <c r="C223" s="8"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -3068,9 +3512,11 @@
     </row>
     <row r="224" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
-        <v>32142</v>
-      </c>
-      <c r="B224" s="4"/>
+        <v>39872</v>
+      </c>
+      <c r="B224" s="4">
+        <v>3.35</v>
+      </c>
       <c r="C224" s="8"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -3079,9 +3525,11 @@
     </row>
     <row r="225" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
-        <v>32173</v>
-      </c>
-      <c r="B225" s="4"/>
+        <v>39903</v>
+      </c>
+      <c r="B225" s="4">
+        <v>3.2499785723178505</v>
+      </c>
       <c r="C225" s="8"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -3090,9 +3538,11 @@
     </row>
     <row r="226" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
-        <v>32202</v>
-      </c>
-      <c r="B226" s="4"/>
+        <v>39933</v>
+      </c>
+      <c r="B226" s="4">
+        <v>3.0625707823036863</v>
+      </c>
       <c r="C226" s="8"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -3101,9 +3551,11 @@
     </row>
     <row r="227" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
-        <v>32233</v>
-      </c>
-      <c r="B227" s="4"/>
+        <v>39964</v>
+      </c>
+      <c r="B227" s="4">
+        <v>3</v>
+      </c>
       <c r="C227" s="8"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -3112,9 +3564,11 @@
     </row>
     <row r="228" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
-        <v>32263</v>
-      </c>
-      <c r="B228" s="4"/>
+        <v>39994</v>
+      </c>
+      <c r="B228" s="4">
+        <v>3.0000620694498248</v>
+      </c>
       <c r="C228" s="8"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -3123,9 +3577,11 @@
     </row>
     <row r="229" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
-        <v>32294</v>
-      </c>
-      <c r="B229" s="4"/>
+        <v>40025</v>
+      </c>
+      <c r="B229" s="4">
+        <v>3</v>
+      </c>
       <c r="C229" s="8"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -3134,9 +3590,11 @@
     </row>
     <row r="230" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
-        <v>32324</v>
-      </c>
-      <c r="B230" s="4"/>
+        <v>40056</v>
+      </c>
+      <c r="B230" s="4">
+        <v>3</v>
+      </c>
       <c r="C230" s="8"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -3145,9 +3603,11 @@
     </row>
     <row r="231" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
-        <v>32355</v>
-      </c>
-      <c r="B231" s="4"/>
+        <v>40086</v>
+      </c>
+      <c r="B231" s="4">
+        <v>3</v>
+      </c>
       <c r="C231" s="8"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -3156,9 +3616,11 @@
     </row>
     <row r="232" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
-        <v>32386</v>
-      </c>
-      <c r="B232" s="4"/>
+        <v>40117</v>
+      </c>
+      <c r="B232" s="4">
+        <v>3.2142857142857144</v>
+      </c>
       <c r="C232" s="8"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -3167,9 +3629,11 @@
     </row>
     <row r="233" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
-        <v>32416</v>
-      </c>
-      <c r="B233" s="4"/>
+        <v>40147</v>
+      </c>
+      <c r="B233" s="4">
+        <v>3.4761904761904763</v>
+      </c>
       <c r="C233" s="8"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -3178,9 +3642,11 @@
     </row>
     <row r="234" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
-        <v>32447</v>
-      </c>
-      <c r="B234" s="4"/>
+        <v>40178</v>
+      </c>
+      <c r="B234" s="4">
+        <v>3.7380952380952381</v>
+      </c>
       <c r="C234" s="8"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -3189,9 +3655,11 @@
     </row>
     <row r="235" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
-        <v>32477</v>
-      </c>
-      <c r="B235" s="4"/>
+        <v>40209</v>
+      </c>
+      <c r="B235" s="4">
+        <v>3.75</v>
+      </c>
       <c r="C235" s="8"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -3200,9 +3668,11 @@
     </row>
     <row r="236" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
-        <v>32508</v>
-      </c>
-      <c r="B236" s="4"/>
+        <v>40237</v>
+      </c>
+      <c r="B236" s="4">
+        <v>3.75</v>
+      </c>
       <c r="C236" s="8"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -3211,9 +3681,11 @@
     </row>
     <row r="237" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
-        <v>32539</v>
-      </c>
-      <c r="B237" s="4"/>
+        <v>40268</v>
+      </c>
+      <c r="B237" s="4">
+        <v>3.9775</v>
+      </c>
       <c r="C237" s="8"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -3222,9 +3694,11 @@
     </row>
     <row r="238" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
-        <v>32567</v>
-      </c>
-      <c r="B238" s="4"/>
+        <v>40298</v>
+      </c>
+      <c r="B238" s="4">
+        <v>4.2225000000000001</v>
+      </c>
       <c r="C238" s="8"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -3233,9 +3707,11 @@
     </row>
     <row r="239" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
-        <v>32598</v>
-      </c>
-      <c r="B239" s="4"/>
+        <v>40329</v>
+      </c>
+      <c r="B239" s="4">
+        <v>4.4749999999999996</v>
+      </c>
       <c r="C239" s="8"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -3244,9 +3720,11 @@
     </row>
     <row r="240" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
-        <v>32628</v>
-      </c>
-      <c r="B240" s="4"/>
+        <v>40359</v>
+      </c>
+      <c r="B240" s="4">
+        <v>4.5</v>
+      </c>
       <c r="C240" s="8"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -3255,9 +3733,11 @@
     </row>
     <row r="241" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
-        <v>32659</v>
-      </c>
-      <c r="B241" s="4"/>
+        <v>40390</v>
+      </c>
+      <c r="B241" s="4">
+        <v>4.5</v>
+      </c>
       <c r="C241" s="8"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -3266,9 +3746,11 @@
     </row>
     <row r="242" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
-        <v>32689</v>
-      </c>
-      <c r="B242" s="4"/>
+        <v>40421</v>
+      </c>
+      <c r="B242" s="4">
+        <v>4.5</v>
+      </c>
       <c r="C242" s="8"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -3277,9 +3759,11 @@
     </row>
     <row r="243" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
-        <v>32720</v>
-      </c>
-      <c r="B243" s="4"/>
+        <v>40451</v>
+      </c>
+      <c r="B243" s="4">
+        <v>4.5</v>
+      </c>
       <c r="C243" s="8"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -3288,9 +3772,11 @@
     </row>
     <row r="244" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
-        <v>32751</v>
-      </c>
-      <c r="B244" s="4"/>
+        <v>40482</v>
+      </c>
+      <c r="B244" s="4">
+        <v>4.5</v>
+      </c>
       <c r="C244" s="8"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -3299,9 +3785,11 @@
     </row>
     <row r="245" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
-        <v>32781</v>
-      </c>
-      <c r="B245" s="4"/>
+        <v>40512</v>
+      </c>
+      <c r="B245" s="4">
+        <v>4.7275</v>
+      </c>
       <c r="C245" s="8"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -3310,9 +3798,11 @@
     </row>
     <row r="246" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
-        <v>32812</v>
-      </c>
-      <c r="B246" s="4"/>
+        <v>40543</v>
+      </c>
+      <c r="B246" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C246" s="8"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -3321,9 +3811,11 @@
     </row>
     <row r="247" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
-        <v>32842</v>
-      </c>
-      <c r="B247" s="4"/>
+        <v>40574</v>
+      </c>
+      <c r="B247" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C247" s="8"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -3332,9 +3824,11 @@
     </row>
     <row r="248" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
-        <v>32873</v>
-      </c>
-      <c r="B248" s="4"/>
+        <v>40602</v>
+      </c>
+      <c r="B248" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C248" s="8"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -3343,9 +3837,11 @@
     </row>
     <row r="249" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
-        <v>32904</v>
-      </c>
-      <c r="B249" s="4"/>
+        <v>40633</v>
+      </c>
+      <c r="B249" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C249" s="8"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -3354,9 +3850,11 @@
     </row>
     <row r="250" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
-        <v>32932</v>
-      </c>
-      <c r="B250" s="4"/>
+        <v>40663</v>
+      </c>
+      <c r="B250" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C250" s="8"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -3365,9 +3863,11 @@
     </row>
     <row r="251" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
-        <v>32963</v>
-      </c>
-      <c r="B251" s="4"/>
+        <v>40694</v>
+      </c>
+      <c r="B251" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C251" s="8"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -3376,9 +3876,11 @@
     </row>
     <row r="252" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
-        <v>32993</v>
-      </c>
-      <c r="B252" s="4"/>
+        <v>40724</v>
+      </c>
+      <c r="B252" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C252" s="8"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -3387,9 +3889,11 @@
     </row>
     <row r="253" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
-        <v>33024</v>
-      </c>
-      <c r="B253" s="4"/>
+        <v>40755</v>
+      </c>
+      <c r="B253" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C253" s="8"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -3398,9 +3902,11 @@
     </row>
     <row r="254" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
-        <v>33054</v>
-      </c>
-      <c r="B254" s="4"/>
+        <v>40786</v>
+      </c>
+      <c r="B254" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C254" s="8"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -3409,9 +3915,11 @@
     </row>
     <row r="255" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
-        <v>33085</v>
-      </c>
-      <c r="B255" s="4"/>
+        <v>40816</v>
+      </c>
+      <c r="B255" s="4">
+        <v>4.75</v>
+      </c>
       <c r="C255" s="8"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -3420,10 +3928,10 @@
     </row>
     <row r="256" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
-        <v>33116</v>
-      </c>
-      <c r="B256" s="4">
-        <v>14</v>
+        <v>40847</v>
+      </c>
+      <c r="B256" s="5">
+        <v>4.75</v>
       </c>
       <c r="C256" s="8"/>
       <c r="D256" s="5"/>
@@ -3433,10 +3941,10 @@
     </row>
     <row r="257" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
-        <v>33146</v>
-      </c>
-      <c r="B257" s="4">
-        <v>14</v>
+        <v>40877</v>
+      </c>
+      <c r="B257" s="5">
+        <v>4.5125000000000002</v>
       </c>
       <c r="C257" s="8"/>
       <c r="D257" s="5"/>
@@ -3446,10 +3954,10 @@
     </row>
     <row r="258" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
-        <v>33177</v>
+        <v>40908</v>
       </c>
       <c r="B258" s="4">
-        <v>13.434782608695652</v>
+        <v>4.3</v>
       </c>
       <c r="C258" s="8"/>
       <c r="D258" s="5"/>
@@ -3459,10 +3967,10 @@
     </row>
     <row r="259" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
-        <v>33207</v>
+        <v>40939</v>
       </c>
       <c r="B259" s="4">
-        <v>13</v>
+        <v>4.25</v>
       </c>
       <c r="C259" s="8"/>
       <c r="D259" s="5"/>
@@ -3472,10 +3980,10 @@
     </row>
     <row r="260" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
-        <v>33238</v>
+        <v>40968</v>
       </c>
       <c r="B260" s="4">
-        <v>12.578947368421053</v>
+        <v>4.25</v>
       </c>
       <c r="C260" s="8"/>
       <c r="D260" s="5"/>
@@ -3485,10 +3993,10 @@
     </row>
     <row r="261" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
-        <v>33269</v>
+        <v>40999</v>
       </c>
       <c r="B261" s="4">
-        <v>12</v>
+        <v>4.25</v>
       </c>
       <c r="C261" s="8"/>
       <c r="D261" s="5"/>
@@ -3498,10 +4006,10 @@
     </row>
     <row r="262" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
-        <v>33297</v>
+        <v>41029</v>
       </c>
       <c r="B262" s="4">
-        <v>12</v>
+        <v>4.25</v>
       </c>
       <c r="C262" s="8"/>
       <c r="D262" s="5"/>
@@ -3511,10 +4019,10 @@
     </row>
     <row r="263" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
-        <v>33328</v>
+        <v>41060</v>
       </c>
       <c r="B263" s="4">
-        <v>12</v>
+        <v>3.7725</v>
       </c>
       <c r="C263" s="8"/>
       <c r="D263" s="5"/>
@@ -3524,10 +4032,10 @@
     </row>
     <row r="264" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
-        <v>33358</v>
+        <v>41090</v>
       </c>
       <c r="B264" s="4">
-        <v>11.55</v>
+        <v>3.5375000000000001</v>
       </c>
       <c r="C264" s="8"/>
       <c r="D264" s="5"/>
@@ -3537,10 +4045,10 @@
     </row>
     <row r="265" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
-        <v>33389</v>
+        <v>41121</v>
       </c>
       <c r="B265" s="4">
-        <v>10.978260869565217</v>
+        <v>3.5</v>
       </c>
       <c r="C265" s="8"/>
       <c r="D265" s="5"/>
@@ -3550,10 +4058,10 @@
     </row>
     <row r="266" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
-        <v>33419</v>
+        <v>41152</v>
       </c>
       <c r="B266" s="4">
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
       <c r="C266" s="8"/>
       <c r="D266" s="5"/>
@@ -3563,10 +4071,10 @@
     </row>
     <row r="267" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
-        <v>33450</v>
+        <v>41182</v>
       </c>
       <c r="B267" s="4">
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
       <c r="C267" s="8"/>
       <c r="D267" s="5"/>
@@ -3576,10 +4084,10 @@
     </row>
     <row r="268" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
-        <v>33481</v>
+        <v>41213</v>
       </c>
       <c r="B268" s="4">
-        <v>10.5</v>
+        <v>3.2725</v>
       </c>
       <c r="C268" s="8"/>
       <c r="D268" s="5"/>
@@ -3589,10 +4097,10 @@
     </row>
     <row r="269" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
-        <v>33511</v>
+        <v>41243</v>
       </c>
       <c r="B269" s="4">
-        <v>9.5476190476190474</v>
+        <v>3.25</v>
       </c>
       <c r="C269" s="8"/>
       <c r="D269" s="5"/>
@@ -3602,10 +4110,10 @@
     </row>
     <row r="270" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
-        <v>33542</v>
+        <v>41274</v>
       </c>
       <c r="B270" s="4">
-        <v>9.5</v>
+        <v>3.0274999999999999</v>
       </c>
       <c r="C270" s="8"/>
       <c r="D270" s="5"/>
@@ -3615,10 +4123,10 @@
     </row>
     <row r="271" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
-        <v>33572</v>
+        <v>41305</v>
       </c>
       <c r="B271" s="4">
-        <v>8.6428571428571423</v>
+        <v>3</v>
       </c>
       <c r="C271" s="8"/>
       <c r="D271" s="5"/>
@@ -3628,10 +4136,10 @@
     </row>
     <row r="272" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
-        <v>33603</v>
+        <v>41333</v>
       </c>
       <c r="B272" s="4">
-        <v>8.5</v>
+        <v>3</v>
       </c>
       <c r="C272" s="8"/>
       <c r="D272" s="5"/>
@@ -3641,10 +4149,10 @@
     </row>
     <row r="273" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
-        <v>33634</v>
+        <v>41364</v>
       </c>
       <c r="B273" s="4">
-        <v>7.6904761904761907</v>
+        <v>3</v>
       </c>
       <c r="C273" s="8"/>
       <c r="D273" s="5"/>
@@ -3654,10 +4162,10 @@
     </row>
     <row r="274" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
-        <v>33663</v>
+        <v>41394</v>
       </c>
       <c r="B274" s="4">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="C274" s="8"/>
       <c r="D274" s="5"/>
@@ -3667,10 +4175,10 @@
     </row>
     <row r="275" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
-        <v>33694</v>
+        <v>41425</v>
       </c>
       <c r="B275" s="4">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="C275" s="8"/>
       <c r="D275" s="5"/>
@@ -3680,10 +4188,10 @@
     </row>
     <row r="276" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
-        <v>33724</v>
+        <v>41455</v>
       </c>
       <c r="B276" s="4">
-        <v>7.5</v>
+        <v>2.75</v>
       </c>
       <c r="C276" s="8"/>
       <c r="D276" s="5"/>
@@ -3693,10 +4201,10 @@
     </row>
     <row r="277" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
-        <v>33755</v>
+        <v>41486</v>
       </c>
       <c r="B277" s="4">
-        <v>6.6428571428571432</v>
+        <v>2.75</v>
       </c>
       <c r="C277" s="8"/>
       <c r="D277" s="5"/>
@@ -3706,10 +4214,10 @@
     </row>
     <row r="278" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
-        <v>33785</v>
+        <v>41517</v>
       </c>
       <c r="B278" s="4">
-        <v>6.5</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C278" s="8"/>
       <c r="D278" s="5"/>
@@ -3719,10 +4227,10 @@
     </row>
     <row r="279" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
-        <v>33816</v>
+        <v>41547</v>
       </c>
       <c r="B279" s="4">
-        <v>5.9130434782608692</v>
+        <v>2.5</v>
       </c>
       <c r="C279" s="8"/>
       <c r="D279" s="5"/>
@@ -3732,10 +4240,10 @@
     </row>
     <row r="280" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
-        <v>33847</v>
+        <v>41578</v>
       </c>
       <c r="B280" s="4">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="C280" s="8"/>
       <c r="D280" s="5"/>
@@ -3745,10 +4253,10 @@
     </row>
     <row r="281" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
-        <v>33877</v>
+        <v>41608</v>
       </c>
       <c r="B281" s="4">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="C281" s="8"/>
       <c r="D281" s="5"/>
@@ -3758,10 +4266,10 @@
     </row>
     <row r="282" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
-        <v>33908</v>
+        <v>41639</v>
       </c>
       <c r="B282" s="4">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="C282" s="8"/>
       <c r="D282" s="5"/>
@@ -3771,10 +4279,10 @@
     </row>
     <row r="283" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
-        <v>33938</v>
+        <v>41670</v>
       </c>
       <c r="B283" s="4">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="C283" s="8"/>
       <c r="D283" s="5"/>
@@ -3784,10 +4292,10 @@
     </row>
     <row r="284" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
-        <v>33969</v>
+        <v>41698</v>
       </c>
       <c r="B284" s="4">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="C284" s="8"/>
       <c r="D284" s="5"/>
@@ -3797,10 +4305,10 @@
     </row>
     <row r="285" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
-        <v>34000</v>
+        <v>41729</v>
       </c>
       <c r="B285" s="4">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="C285" s="8"/>
       <c r="D285" s="5"/>
@@ -3810,10 +4318,10 @@
     </row>
     <row r="286" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
-        <v>34028</v>
+        <v>41759</v>
       </c>
       <c r="B286" s="4">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="C286" s="8"/>
       <c r="D286" s="5"/>
@@ -3823,10 +4331,10 @@
     </row>
     <row r="287" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
-        <v>34059</v>
+        <v>41790</v>
       </c>
       <c r="B287" s="4">
-        <v>5.5978260869565215</v>
+        <v>2.5</v>
       </c>
       <c r="C287" s="8"/>
       <c r="D287" s="5"/>
@@ -3836,10 +4344,10 @@
     </row>
     <row r="288" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
-        <v>34089</v>
+        <v>41820</v>
       </c>
       <c r="B288" s="4">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="C288" s="8"/>
       <c r="D288" s="5"/>
@@ -3849,10 +4357,10 @@
     </row>
     <row r="289" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
-        <v>34120</v>
+        <v>41851</v>
       </c>
       <c r="B289" s="4">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="C289" s="8"/>
       <c r="D289" s="5"/>
@@ -3862,10 +4370,10 @@
     </row>
     <row r="290" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
-        <v>34150</v>
+        <v>41882</v>
       </c>
       <c r="B290" s="4">
-        <v>5.25</v>
+        <v>2.5</v>
       </c>
       <c r="C290" s="8"/>
       <c r="D290" s="5"/>
@@ -3875,10 +4383,10 @@
     </row>
     <row r="291" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
-        <v>34181</v>
+        <v>41912</v>
       </c>
       <c r="B291" s="4">
-        <v>5.2272727272727275</v>
+        <v>2.5</v>
       </c>
       <c r="C291" s="8"/>
       <c r="D291" s="5"/>
@@ -3888,10 +4396,10 @@
     </row>
     <row r="292" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
-        <v>34212</v>
+        <v>41943</v>
       </c>
       <c r="B292" s="4">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="C292" s="8"/>
       <c r="D292" s="5"/>
@@ -3901,10 +4409,10 @@
     </row>
     <row r="293" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
-        <v>34242</v>
+        <v>41973</v>
       </c>
       <c r="B293" s="4">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="C293" s="8"/>
       <c r="D293" s="5"/>
@@ -3914,10 +4422,10 @@
     </row>
     <row r="294" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
-        <v>34273</v>
+        <v>42004</v>
       </c>
       <c r="B294" s="4">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="C294" s="8"/>
       <c r="D294" s="5"/>
@@ -3927,10 +4435,10 @@
     </row>
     <row r="295" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
-        <v>34303</v>
+        <v>42035</v>
       </c>
       <c r="B295" s="4">
-        <v>4.75</v>
+        <v>2.5</v>
       </c>
       <c r="C295" s="8"/>
       <c r="D295" s="5"/>
@@ -3940,10 +4448,10 @@
     </row>
     <row r="296" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
-        <v>34334</v>
+        <v>42063</v>
       </c>
       <c r="B296" s="4">
-        <v>4.75</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="C296" s="8"/>
       <c r="D296" s="5"/>
@@ -3953,10 +4461,10 @@
     </row>
     <row r="297" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
-        <v>34365</v>
+        <v>42094</v>
       </c>
       <c r="B297" s="4">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="C297" s="8"/>
       <c r="D297" s="5"/>
@@ -3966,10 +4474,10 @@
     </row>
     <row r="298" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
-        <v>34393</v>
+        <v>42124</v>
       </c>
       <c r="B298" s="4">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="C298" s="8"/>
       <c r="D298" s="5"/>
@@ -3979,10 +4487,10 @@
     </row>
     <row r="299" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
-        <v>34424</v>
+        <v>42155</v>
       </c>
       <c r="B299" s="4">
-        <v>4.75</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="C299" s="8"/>
       <c r="D299" s="5"/>
@@ -3992,10 +4500,10 @@
     </row>
     <row r="300" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
-        <v>34454</v>
+        <v>42185</v>
       </c>
       <c r="B300" s="4">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="C300" s="8"/>
       <c r="D300" s="5"/>
@@ -4005,10 +4513,10 @@
     </row>
     <row r="301" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
-        <v>34485</v>
+        <v>42216</v>
       </c>
       <c r="B301" s="4">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="C301" s="8"/>
       <c r="D301" s="5"/>
@@ -4018,10 +4526,10 @@
     </row>
     <row r="302" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
-        <v>34515</v>
+        <v>42247</v>
       </c>
       <c r="B302" s="4">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="C302" s="8"/>
       <c r="D302" s="5"/>
@@ -4031,10 +4539,10 @@
     </row>
     <row r="303" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
-        <v>34546</v>
+        <v>42277</v>
       </c>
       <c r="B303" s="4">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="C303" s="8"/>
       <c r="D303" s="5"/>
@@ -4044,10 +4552,10 @@
     </row>
     <row r="304" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
-        <v>34577</v>
+        <v>42308</v>
       </c>
       <c r="B304" s="4">
-        <v>5.1086956521739131</v>
+        <v>2</v>
       </c>
       <c r="C304" s="8"/>
       <c r="D304" s="5"/>
@@ -4057,10 +4565,10 @@
     </row>
     <row r="305" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
-        <v>34607</v>
+        <v>42338</v>
       </c>
       <c r="B305" s="4">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="C305" s="8"/>
       <c r="D305" s="5"/>
@@ -4070,10 +4578,10 @@
     </row>
     <row r="306" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
-        <v>34638</v>
+        <v>42369</v>
       </c>
       <c r="B306" s="4">
-        <v>5.7857142857142856</v>
+        <v>2</v>
       </c>
       <c r="C306" s="8"/>
       <c r="D306" s="5"/>
@@ -4083,10 +4591,10 @@
     </row>
     <row r="307" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
-        <v>34668</v>
+        <v>42400</v>
       </c>
       <c r="B307" s="4">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="C307" s="8"/>
       <c r="D307" s="5"/>
@@ -4096,10 +4604,10 @@
     </row>
     <row r="308" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
-        <v>34699</v>
+        <v>42429</v>
       </c>
       <c r="B308" s="4">
-        <v>7.05</v>
+        <v>2</v>
       </c>
       <c r="C308" s="8"/>
       <c r="D308" s="5"/>
@@ -4109,10 +4617,10 @@
     </row>
     <row r="309" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
-        <v>34730</v>
+        <v>42460</v>
       </c>
       <c r="B309" s="4">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="C309" s="8"/>
       <c r="D309" s="5"/>
@@ -4122,10 +4630,10 @@
     </row>
     <row r="310" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
-        <v>34758</v>
+        <v>42490</v>
       </c>
       <c r="B310" s="4">
-        <v>7.5</v>
+        <v>2</v>
       </c>
       <c r="C310" s="8"/>
       <c r="D310" s="5"/>
@@ -4135,10 +4643,10 @@
     </row>
     <row r="311" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
-        <v>34789</v>
+        <v>42521</v>
       </c>
       <c r="B311" s="4">
-        <v>7.5</v>
+        <v>1.77</v>
       </c>
       <c r="C311" s="8"/>
       <c r="D311" s="5"/>
@@ -4148,10 +4656,10 @@
     </row>
     <row r="312" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
-        <v>34819</v>
+        <v>42551</v>
       </c>
       <c r="B312" s="4">
-        <v>7.5</v>
+        <v>1.75</v>
       </c>
       <c r="C312" s="8"/>
       <c r="D312" s="5"/>
@@ -4161,10 +4669,10 @@
     </row>
     <row r="313" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
-        <v>34850</v>
+        <v>42582</v>
       </c>
       <c r="B313" s="4">
-        <v>7.5</v>
+        <v>1.75</v>
       </c>
       <c r="C313" s="8"/>
       <c r="D313" s="5"/>
@@ -4174,10 +4682,10 @@
     </row>
     <row r="314" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
-        <v>34880</v>
+        <v>42613</v>
       </c>
       <c r="B314" s="4">
-        <v>7.5</v>
+        <v>1.52</v>
       </c>
       <c r="C314" s="8"/>
       <c r="D314" s="5"/>
@@ -4187,10 +4695,10 @@
     </row>
     <row r="315" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
-        <v>34911</v>
+        <v>42643</v>
       </c>
       <c r="B315" s="4">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="C315" s="8"/>
       <c r="D315" s="5"/>
@@ -4200,10 +4708,10 @@
     </row>
     <row r="316" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
-        <v>34942</v>
+        <v>42674</v>
       </c>
       <c r="B316" s="4">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="C316" s="8"/>
       <c r="D316" s="5"/>
@@ -4213,10 +4721,10 @@
     </row>
     <row r="317" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
-        <v>34972</v>
+        <v>42704</v>
       </c>
       <c r="B317" s="4">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="C317" s="8"/>
       <c r="D317" s="5"/>
@@ -4226,10 +4734,10 @@
     </row>
     <row r="318" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
-        <v>35003</v>
+        <v>42735</v>
       </c>
       <c r="B318" s="4">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="C318" s="8"/>
       <c r="D318" s="5"/>
@@ -4239,10 +4747,10 @@
     </row>
     <row r="319" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
-        <v>35033</v>
+        <v>42766</v>
       </c>
       <c r="B319" s="4">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="C319" s="8"/>
       <c r="D319" s="5"/>
@@ -4252,10 +4760,10 @@
     </row>
     <row r="320" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
-        <v>35064</v>
+        <v>42794</v>
       </c>
       <c r="B320" s="4">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="C320" s="8"/>
       <c r="D320" s="5"/>
@@ -4265,10 +4773,10 @@
     </row>
     <row r="321" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
-        <v>35095</v>
+        <v>42825</v>
       </c>
       <c r="B321" s="4">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="C321" s="8"/>
       <c r="D321" s="5"/>
@@ -4278,10 +4786,10 @@
     </row>
     <row r="322" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
-        <v>35124</v>
+        <v>42855</v>
       </c>
       <c r="B322" s="4">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="C322" s="8"/>
       <c r="D322" s="5"/>
@@ -4291,10 +4799,10 @@
     </row>
     <row r="323" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
-        <v>35155</v>
+        <v>42886</v>
       </c>
       <c r="B323" s="4">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="C323" s="8"/>
       <c r="D323" s="5"/>
@@ -4304,10 +4812,10 @@
     </row>
     <row r="324" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
-        <v>35185</v>
+        <v>42916</v>
       </c>
       <c r="B324" s="4">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="C324" s="8"/>
       <c r="D324" s="5"/>
@@ -4317,10 +4825,10 @@
     </row>
     <row r="325" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
-        <v>35216</v>
+        <v>42947</v>
       </c>
       <c r="B325" s="4">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="C325" s="8"/>
       <c r="D325" s="5"/>
@@ -4330,10 +4838,10 @@
     </row>
     <row r="326" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
-        <v>35246</v>
+        <v>42978</v>
       </c>
       <c r="B326" s="4">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="C326" s="8"/>
       <c r="D326" s="5"/>
@@ -4343,10 +4851,10 @@
     </row>
     <row r="327" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
-        <v>35277</v>
+        <v>43008</v>
       </c>
       <c r="B327" s="4">
-        <v>7.4782608695652177</v>
+        <v>1.5</v>
       </c>
       <c r="C327" s="8"/>
       <c r="D327" s="5"/>
@@ -4356,10 +4864,10 @@
     </row>
     <row r="328" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
-        <v>35308</v>
+        <v>43039</v>
       </c>
       <c r="B328" s="4">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="C328" s="8"/>
       <c r="D328" s="5"/>
@@ -4369,10 +4877,10 @@
     </row>
     <row r="329" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
-        <v>35338</v>
+        <v>43069</v>
       </c>
       <c r="B329" s="4">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="C329" s="8"/>
       <c r="D329" s="5"/>
@@ -4380,12 +4888,12 @@
       <c r="F329" s="5"/>
       <c r="G329" s="5"/>
     </row>
-    <row r="330" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" s="7" customFormat="1" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
-        <v>35369</v>
-      </c>
-      <c r="B330" s="4">
-        <v>7</v>
+        <v>43100</v>
+      </c>
+      <c r="B330" s="10">
+        <v>1.5</v>
       </c>
       <c r="C330" s="8"/>
       <c r="D330" s="5"/>
@@ -4395,10 +4903,10 @@
     </row>
     <row r="331" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
-        <v>35399</v>
+        <v>43131</v>
       </c>
       <c r="B331" s="4">
-        <v>6.5714285714285712</v>
+        <v>1.5</v>
       </c>
       <c r="C331" s="8"/>
       <c r="D331" s="5"/>
@@ -4408,10 +4916,10 @@
     </row>
     <row r="332" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
-        <v>35430</v>
+        <v>43159</v>
       </c>
       <c r="B332" s="4">
-        <v>6.1749999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="C332" s="8"/>
       <c r="D332" s="5"/>
@@ -4421,10 +4929,10 @@
     </row>
     <row r="333" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
-        <v>35461</v>
+        <v>43190</v>
       </c>
       <c r="B333" s="4">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="C333" s="8"/>
       <c r="D333" s="5"/>
@@ -4434,10 +4942,10 @@
     </row>
     <row r="334" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
-        <v>35489</v>
+        <v>43220</v>
       </c>
       <c r="B334" s="4">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="C334" s="8"/>
       <c r="D334" s="5"/>
@@ -4447,10 +4955,10 @@
     </row>
     <row r="335" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
-        <v>35520</v>
+        <v>43251</v>
       </c>
       <c r="B335" s="4">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="C335" s="8"/>
       <c r="D335" s="5"/>
@@ -4460,10 +4968,10 @@
     </row>
     <row r="336" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
-        <v>35550</v>
+        <v>43281</v>
       </c>
       <c r="B336" s="4">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="C336" s="8"/>
       <c r="D336" s="5"/>
@@ -4473,10 +4981,10 @@
     </row>
     <row r="337" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
-        <v>35581</v>
+        <v>43312</v>
       </c>
       <c r="B337" s="4">
-        <v>5.8636363636363633</v>
+        <v>1.5</v>
       </c>
       <c r="C337" s="8"/>
       <c r="D337" s="5"/>
@@ -4486,10 +4994,10 @@
     </row>
     <row r="338" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
-        <v>35611</v>
+        <v>43343</v>
       </c>
       <c r="B338" s="4">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="C338" s="8"/>
       <c r="D338" s="5"/>
@@ -4499,10 +5007,10 @@
     </row>
     <row r="339" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
-        <v>35642</v>
+        <v>43373</v>
       </c>
       <c r="B339" s="4">
-        <v>5.4565217391304346</v>
+        <v>1.5</v>
       </c>
       <c r="C339" s="8"/>
       <c r="D339" s="5"/>
@@ -4512,10 +5020,10 @@
     </row>
     <row r="340" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
-        <v>35673</v>
+        <v>43404</v>
       </c>
       <c r="B340" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="C340" s="8"/>
       <c r="D340" s="5"/>
@@ -4525,10 +5033,10 @@
     </row>
     <row r="341" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
-        <v>35703</v>
+        <v>43434</v>
       </c>
       <c r="B341" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="C341" s="8"/>
       <c r="D341" s="5"/>
@@ -4538,10 +5046,10 @@
     </row>
     <row r="342" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
-        <v>35734</v>
+        <v>43465</v>
       </c>
       <c r="B342" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="C342" s="8"/>
       <c r="D342" s="5"/>
@@ -4551,10 +5059,10 @@
     </row>
     <row r="343" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
-        <v>35764</v>
+        <v>43496</v>
       </c>
       <c r="B343" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="C343" s="8"/>
       <c r="D343" s="5"/>
@@ -4564,10 +5072,10 @@
     </row>
     <row r="344" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
-        <v>35795</v>
+        <v>43524</v>
       </c>
       <c r="B344" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="C344" s="8"/>
       <c r="D344" s="5"/>
@@ -4577,10 +5085,10 @@
     </row>
     <row r="345" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
-        <v>35826</v>
+        <v>43555</v>
       </c>
       <c r="B345" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="C345" s="8"/>
       <c r="D345" s="5"/>
@@ -4590,10 +5098,10 @@
     </row>
     <row r="346" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
-        <v>35854</v>
+        <v>43585</v>
       </c>
       <c r="B346" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="C346" s="8"/>
       <c r="D346" s="5"/>
@@ -4603,10 +5111,10 @@
     </row>
     <row r="347" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
-        <v>35885</v>
+        <v>43616</v>
       </c>
       <c r="B347" s="4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="C347" s="8"/>
       <c r="D347" s="5"/>
@@ -4615,11 +5123,11 @@
       <c r="G347" s="5"/>
     </row>
     <row r="348" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="3">
-        <v>35915</v>
+      <c r="A348" s="11">
+        <v>43646</v>
       </c>
       <c r="B348" s="4">
-        <v>5</v>
+        <v>1.28</v>
       </c>
       <c r="C348" s="8"/>
       <c r="D348" s="5"/>
@@ -4628,11 +5136,11 @@
       <c r="G348" s="5"/>
     </row>
     <row r="349" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="3">
-        <v>35946</v>
+      <c r="A349" s="11">
+        <v>43677</v>
       </c>
       <c r="B349" s="4">
-        <v>5</v>
+        <v>1.02</v>
       </c>
       <c r="C349" s="8"/>
       <c r="D349" s="5"/>
@@ -4641,11 +5149,11 @@
       <c r="G349" s="5"/>
     </row>
     <row r="350" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="3">
-        <v>35976</v>
-      </c>
-      <c r="B350" s="4">
-        <v>5</v>
+      <c r="A350" s="14">
+        <v>43708</v>
+      </c>
+      <c r="B350" s="13">
+        <v>1</v>
       </c>
       <c r="C350" s="8"/>
       <c r="D350" s="5"/>
@@ -4654,11 +5162,11 @@
       <c r="G350" s="5"/>
     </row>
     <row r="351" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="3">
-        <v>36007</v>
-      </c>
-      <c r="B351" s="4">
-        <v>5</v>
+      <c r="A351" s="14">
+        <v>43738</v>
+      </c>
+      <c r="B351" s="13">
+        <v>1</v>
       </c>
       <c r="C351" s="8"/>
       <c r="D351" s="5"/>
@@ -4667,11 +5175,11 @@
       <c r="G351" s="5"/>
     </row>
     <row r="352" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="3">
-        <v>36038</v>
-      </c>
-      <c r="B352" s="4">
-        <v>5</v>
+      <c r="A352" s="15">
+        <v>43769</v>
+      </c>
+      <c r="B352" s="13">
+        <v>0.76</v>
       </c>
       <c r="C352" s="8"/>
       <c r="D352" s="5"/>
@@ -4680,11 +5188,11 @@
       <c r="G352" s="5"/>
     </row>
     <row r="353" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="3">
-        <v>36068</v>
-      </c>
-      <c r="B353" s="4">
-        <v>5</v>
+      <c r="A353" s="16">
+        <v>43799</v>
+      </c>
+      <c r="B353" s="13">
+        <v>0.75</v>
       </c>
       <c r="C353" s="8"/>
       <c r="D353" s="5"/>
@@ -4693,11 +5201,11 @@
       <c r="G353" s="5"/>
     </row>
     <row r="354" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="3">
-        <v>36099</v>
-      </c>
-      <c r="B354" s="4">
-        <v>5</v>
+      <c r="A354" s="17">
+        <v>43830</v>
+      </c>
+      <c r="B354" s="13">
+        <v>0.75</v>
       </c>
       <c r="C354" s="8"/>
       <c r="D354" s="5"/>
@@ -4706,11 +5214,11 @@
       <c r="G354" s="5"/>
     </row>
     <row r="355" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="3">
-        <v>36129</v>
-      </c>
-      <c r="B355" s="4">
-        <v>5</v>
+      <c r="A355" s="18">
+        <v>43861</v>
+      </c>
+      <c r="B355" s="13">
+        <v>0.75</v>
       </c>
       <c r="C355" s="8"/>
       <c r="D355" s="5"/>
@@ -4719,11 +5227,11 @@
       <c r="G355" s="5"/>
     </row>
     <row r="356" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="3">
-        <v>36160</v>
-      </c>
-      <c r="B356" s="4">
-        <v>4.7619047619047619</v>
+      <c r="A356" s="19">
+        <v>43890</v>
+      </c>
+      <c r="B356" s="13">
+        <v>0.75</v>
       </c>
       <c r="C356" s="8"/>
       <c r="D356" s="5"/>
@@ -4732,11 +5240,11 @@
       <c r="G356" s="5"/>
     </row>
     <row r="357" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="3">
-        <v>36191</v>
-      </c>
-      <c r="B357" s="4">
-        <v>4.75</v>
+      <c r="A357" s="20">
+        <v>43921</v>
+      </c>
+      <c r="B357" s="13">
+        <v>0.43</v>
       </c>
       <c r="C357" s="8"/>
       <c r="D357" s="5"/>
@@ -4745,11 +5253,11 @@
       <c r="G357" s="5"/>
     </row>
     <row r="358" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A358" s="3">
-        <v>36219</v>
-      </c>
-      <c r="B358" s="4">
-        <v>4.75</v>
+      <c r="A358" s="21">
+        <v>43951</v>
+      </c>
+      <c r="B358" s="13">
+        <v>0.25</v>
       </c>
       <c r="C358" s="8"/>
       <c r="D358" s="5"/>
@@ -4758,11 +5266,11 @@
       <c r="G358" s="5"/>
     </row>
     <row r="359" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A359" s="3">
-        <v>36250</v>
-      </c>
-      <c r="B359" s="4">
-        <v>4.75</v>
+      <c r="A359" s="22">
+        <v>43982</v>
+      </c>
+      <c r="B359" s="13">
+        <v>0.25</v>
       </c>
       <c r="C359" s="8"/>
       <c r="D359" s="5"/>
@@ -4771,11 +5279,11 @@
       <c r="G359" s="5"/>
     </row>
     <row r="360" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A360" s="3">
-        <v>36280</v>
-      </c>
-      <c r="B360" s="4">
-        <v>4.75</v>
+      <c r="A360" s="23">
+        <v>44012</v>
+      </c>
+      <c r="B360" s="13">
+        <v>0.25</v>
       </c>
       <c r="C360" s="8"/>
       <c r="D360" s="5"/>
@@ -4784,11 +5292,11 @@
       <c r="G360" s="5"/>
     </row>
     <row r="361" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A361" s="3">
-        <v>36311</v>
-      </c>
-      <c r="B361" s="4">
-        <v>4.75</v>
+      <c r="A361" s="24">
+        <v>44043</v>
+      </c>
+      <c r="B361" s="13">
+        <v>0.25</v>
       </c>
       <c r="C361" s="8"/>
       <c r="D361" s="5"/>
@@ -4797,11 +5305,11 @@
       <c r="G361" s="5"/>
     </row>
     <row r="362" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A362" s="3">
-        <v>36341</v>
-      </c>
-      <c r="B362" s="4">
-        <v>4.75</v>
+      <c r="A362" s="25">
+        <v>44074</v>
+      </c>
+      <c r="B362" s="13">
+        <v>0.25</v>
       </c>
       <c r="C362" s="8"/>
       <c r="D362" s="5"/>
@@ -4810,11 +5318,11 @@
       <c r="G362" s="5"/>
     </row>
     <row r="363" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A363" s="3">
-        <v>36372</v>
-      </c>
-      <c r="B363" s="4">
-        <v>4.75</v>
+      <c r="A363" s="25">
+        <v>44104</v>
+      </c>
+      <c r="B363" s="13">
+        <v>0.25</v>
       </c>
       <c r="C363" s="8"/>
       <c r="D363" s="5"/>
@@ -4823,11 +5331,11 @@
       <c r="G363" s="5"/>
     </row>
     <row r="364" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A364" s="3">
-        <v>36403</v>
-      </c>
-      <c r="B364" s="4">
-        <v>4.75</v>
+      <c r="A364" s="25">
+        <v>44135</v>
+      </c>
+      <c r="B364" s="13">
+        <v>0.25</v>
       </c>
       <c r="C364" s="8"/>
       <c r="D364" s="5"/>
@@ -4836,11 +5344,11 @@
       <c r="G364" s="5"/>
     </row>
     <row r="365" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A365" s="3">
-        <v>36433</v>
-      </c>
-      <c r="B365" s="4">
-        <v>4.75</v>
+      <c r="A365" s="25">
+        <v>44165</v>
+      </c>
+      <c r="B365" s="12">
+        <v>0.1</v>
       </c>
       <c r="C365" s="8"/>
       <c r="D365" s="5"/>
@@ -4849,11 +5357,11 @@
       <c r="G365" s="5"/>
     </row>
     <row r="366" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A366" s="3">
-        <v>36464</v>
-      </c>
-      <c r="B366" s="4">
-        <v>4.75</v>
+      <c r="A366" s="25">
+        <v>44196</v>
+      </c>
+      <c r="B366" s="12">
+        <v>0.1</v>
       </c>
       <c r="C366" s="8"/>
       <c r="D366" s="5"/>
@@ -4862,12 +5370,8 @@
       <c r="G366" s="5"/>
     </row>
     <row r="367" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A367" s="3">
-        <v>36494</v>
-      </c>
-      <c r="B367" s="4">
-        <v>4.9772727272727275</v>
-      </c>
+      <c r="A367" s="11"/>
+      <c r="B367" s="12"/>
       <c r="C367" s="8"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
@@ -4875,12 +5379,8 @@
       <c r="G367" s="5"/>
     </row>
     <row r="368" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A368" s="3">
-        <v>36525</v>
-      </c>
-      <c r="B368" s="4">
-        <v>5</v>
-      </c>
+      <c r="A368" s="11"/>
+      <c r="B368" s="12"/>
       <c r="C368" s="8"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
@@ -4888,12 +5388,8 @@
       <c r="G368" s="5"/>
     </row>
     <row r="369" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A369" s="3">
-        <v>36556</v>
-      </c>
-      <c r="B369" s="4">
-        <v>5</v>
-      </c>
+      <c r="A369" s="11"/>
+      <c r="B369" s="12"/>
       <c r="C369" s="8"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
@@ -4901,12 +5397,8 @@
       <c r="G369" s="5"/>
     </row>
     <row r="370" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A370" s="3">
-        <v>36585</v>
-      </c>
-      <c r="B370" s="4">
-        <v>5.4761904761904763</v>
-      </c>
+      <c r="A370" s="11"/>
+      <c r="B370" s="12"/>
       <c r="C370" s="8"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
@@ -4914,12 +5406,8 @@
       <c r="G370" s="5"/>
     </row>
     <row r="371" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="3">
-        <v>36616</v>
-      </c>
-      <c r="B371" s="4">
-        <v>5.5</v>
-      </c>
+      <c r="A371" s="11"/>
+      <c r="B371" s="12"/>
       <c r="C371" s="8"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
@@ -4927,12 +5415,8 @@
       <c r="G371" s="5"/>
     </row>
     <row r="372" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="3">
-        <v>36646</v>
-      </c>
-      <c r="B372" s="4">
-        <v>5.7205882352941178</v>
-      </c>
+      <c r="A372" s="11"/>
+      <c r="B372" s="12"/>
       <c r="C372" s="8"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
@@ -4940,12 +5424,8 @@
       <c r="G372" s="5"/>
     </row>
     <row r="373" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="3">
-        <v>36677</v>
-      </c>
-      <c r="B373" s="4">
-        <v>5.9782608695652177</v>
-      </c>
+      <c r="A373" s="11"/>
+      <c r="B373" s="12"/>
       <c r="C373" s="8"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
@@ -4953,12 +5433,8 @@
       <c r="G373" s="5"/>
     </row>
     <row r="374" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="3">
-        <v>36707</v>
-      </c>
-      <c r="B374" s="4">
-        <v>6</v>
-      </c>
+      <c r="A374" s="11"/>
+      <c r="B374" s="12"/>
       <c r="C374" s="8"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
@@ -4966,12 +5442,8 @@
       <c r="G374" s="5"/>
     </row>
     <row r="375" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="3">
-        <v>36738</v>
-      </c>
-      <c r="B375" s="4">
-        <v>6</v>
-      </c>
+      <c r="A375" s="11"/>
+      <c r="B375" s="12"/>
       <c r="C375" s="8"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
@@ -4979,12 +5451,8 @@
       <c r="G375" s="5"/>
     </row>
     <row r="376" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="3">
-        <v>36769</v>
-      </c>
-      <c r="B376" s="4">
-        <v>6.2391304347826084</v>
-      </c>
+      <c r="A376" s="11"/>
+      <c r="B376" s="12"/>
       <c r="C376" s="8"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
@@ -4992,12 +5460,8 @@
       <c r="G376" s="5"/>
     </row>
     <row r="377" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="3">
-        <v>36799</v>
-      </c>
-      <c r="B377" s="4">
-        <v>6.25</v>
-      </c>
+      <c r="A377" s="11"/>
+      <c r="B377" s="12"/>
       <c r="C377" s="8"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
@@ -5005,12 +5469,8 @@
       <c r="G377" s="5"/>
     </row>
     <row r="378" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="3">
-        <v>36830</v>
-      </c>
-      <c r="B378" s="4">
-        <v>6.25</v>
-      </c>
+      <c r="A378" s="11"/>
+      <c r="B378" s="12"/>
       <c r="C378" s="8"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
@@ -5018,12 +5478,8 @@
       <c r="G378" s="5"/>
     </row>
     <row r="379" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="3">
-        <v>36860</v>
-      </c>
-      <c r="B379" s="4">
-        <v>6.25</v>
-      </c>
+      <c r="A379" s="11"/>
+      <c r="B379" s="12"/>
       <c r="C379" s="8"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
@@ -5031,12 +5487,8 @@
       <c r="G379" s="5"/>
     </row>
     <row r="380" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="3">
-        <v>36891</v>
-      </c>
-      <c r="B380" s="4">
-        <v>6.25</v>
-      </c>
+      <c r="A380" s="11"/>
+      <c r="B380" s="12"/>
       <c r="C380" s="8"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
@@ -5044,12 +5496,8 @@
       <c r="G380" s="5"/>
     </row>
     <row r="381" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="3">
-        <v>36922</v>
-      </c>
-      <c r="B381" s="4">
-        <v>6.25</v>
-      </c>
+      <c r="A381" s="11"/>
+      <c r="B381" s="12"/>
       <c r="C381" s="8"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
@@ -5057,12 +5505,8 @@
       <c r="G381" s="5"/>
     </row>
     <row r="382" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="3">
-        <v>36950</v>
-      </c>
-      <c r="B382" s="4">
-        <v>5.85</v>
-      </c>
+      <c r="A382" s="11"/>
+      <c r="B382" s="12"/>
       <c r="C382" s="8"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
@@ -5070,12 +5514,8 @@
       <c r="G382" s="5"/>
     </row>
     <row r="383" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="3">
-        <v>36981</v>
-      </c>
-      <c r="B383" s="4">
-        <v>5.5454545454545459</v>
-      </c>
+      <c r="A383" s="11"/>
+      <c r="B383" s="12"/>
       <c r="C383" s="8"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
@@ -5083,12 +5523,8 @@
       <c r="G383" s="5"/>
     </row>
     <row r="384" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="3">
-        <v>37011</v>
-      </c>
-      <c r="B384" s="4">
-        <v>5.0555555555555554</v>
-      </c>
+      <c r="A384" s="11"/>
+      <c r="B384" s="12"/>
       <c r="C384" s="8"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
@@ -5096,12 +5532,8 @@
       <c r="G384" s="5"/>
     </row>
     <row r="385" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="3">
-        <v>37042</v>
-      </c>
-      <c r="B385" s="4">
-        <v>5</v>
-      </c>
+      <c r="A385" s="11"/>
+      <c r="B385" s="12"/>
       <c r="C385" s="8"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
@@ -5109,12 +5541,8 @@
       <c r="G385" s="5"/>
     </row>
     <row r="386" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="3">
-        <v>37072</v>
-      </c>
-      <c r="B386" s="4">
-        <v>5</v>
-      </c>
+      <c r="A386" s="11"/>
+      <c r="B386" s="12"/>
       <c r="C386" s="8"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
@@ -5122,12 +5550,8 @@
       <c r="G386" s="5"/>
     </row>
     <row r="387" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="3">
-        <v>37103</v>
-      </c>
-      <c r="B387" s="4">
-        <v>5</v>
-      </c>
+      <c r="A387" s="11"/>
+      <c r="B387" s="12"/>
       <c r="C387" s="8"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
@@ -5135,12 +5559,8 @@
       <c r="G387" s="5"/>
     </row>
     <row r="388" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="3">
-        <v>37134</v>
-      </c>
-      <c r="B388" s="4">
-        <v>5</v>
-      </c>
+      <c r="A388" s="11"/>
+      <c r="B388" s="12"/>
       <c r="C388" s="8"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
@@ -5148,12 +5568,8 @@
       <c r="G388" s="5"/>
     </row>
     <row r="389" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="3">
-        <v>37164</v>
-      </c>
-      <c r="B389" s="4">
-        <v>4.7750000000000004</v>
-      </c>
+      <c r="A389" s="11"/>
+      <c r="B389" s="12"/>
       <c r="C389" s="8"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
@@ -5161,12 +5577,8 @@
       <c r="G389" s="5"/>
     </row>
     <row r="390" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A390" s="3">
-        <v>37195</v>
-      </c>
-      <c r="B390" s="4">
-        <v>4.5217391304347823</v>
-      </c>
+      <c r="A390" s="11"/>
+      <c r="B390" s="12"/>
       <c r="C390" s="8"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
@@ -5174,12 +5586,8 @@
       <c r="G390" s="5"/>
     </row>
     <row r="391" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="3">
-        <v>37225</v>
-      </c>
-      <c r="B391" s="4">
-        <v>4.5</v>
-      </c>
+      <c r="A391" s="11"/>
+      <c r="B391" s="12"/>
       <c r="C391" s="8"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
@@ -5187,12 +5595,8 @@
       <c r="G391" s="5"/>
     </row>
     <row r="392" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A392" s="3">
-        <v>37256</v>
-      </c>
-      <c r="B392" s="4">
-        <v>4.2763157894736841</v>
-      </c>
+      <c r="A392" s="11"/>
+      <c r="B392" s="12"/>
       <c r="C392" s="8"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
@@ -5200,12 +5604,8 @@
       <c r="G392" s="5"/>
     </row>
     <row r="393" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="3">
-        <v>37287</v>
-      </c>
-      <c r="B393" s="4">
-        <v>4.25</v>
-      </c>
+      <c r="A393" s="11"/>
+      <c r="B393" s="12"/>
       <c r="C393" s="8"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
@@ -5213,12 +5613,8 @@
       <c r="G393" s="5"/>
     </row>
     <row r="394" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="3">
-        <v>37315</v>
-      </c>
-      <c r="B394" s="4">
-        <v>4.25</v>
-      </c>
+      <c r="A394" s="11"/>
+      <c r="B394" s="12"/>
       <c r="C394" s="8"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
@@ -5226,12 +5622,8 @@
       <c r="G394" s="5"/>
     </row>
     <row r="395" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="3">
-        <v>37346</v>
-      </c>
-      <c r="B395" s="4">
-        <v>4.25</v>
-      </c>
+      <c r="A395" s="11"/>
+      <c r="B395" s="12"/>
       <c r="C395" s="8"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
@@ -5239,12 +5631,8 @@
       <c r="G395" s="5"/>
     </row>
     <row r="396" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A396" s="3">
-        <v>37376</v>
-      </c>
-      <c r="B396" s="4">
-        <v>4.25</v>
-      </c>
+      <c r="A396" s="11"/>
+      <c r="B396" s="12"/>
       <c r="C396" s="8"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
@@ -5252,12 +5640,8 @@
       <c r="G396" s="5"/>
     </row>
     <row r="397" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="3">
-        <v>37407</v>
-      </c>
-      <c r="B397" s="4">
-        <v>4.4456521739130439</v>
-      </c>
+      <c r="A397" s="11"/>
+      <c r="B397" s="12"/>
       <c r="C397" s="8"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
@@ -5265,12 +5649,8 @@
       <c r="G397" s="5"/>
     </row>
     <row r="398" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="3">
-        <v>37437</v>
-      </c>
-      <c r="B398" s="4">
-        <v>4.7236842105263159</v>
-      </c>
+      <c r="A398" s="11"/>
+      <c r="B398" s="12"/>
       <c r="C398" s="8"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
@@ -5278,12 +5658,8 @@
       <c r="G398" s="5"/>
     </row>
     <row r="399" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="3">
-        <v>37468</v>
-      </c>
-      <c r="B399" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A399" s="11"/>
+      <c r="B399" s="12"/>
       <c r="C399" s="8"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
@@ -5291,12 +5667,8 @@
       <c r="G399" s="5"/>
     </row>
     <row r="400" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="3">
-        <v>37499</v>
-      </c>
-      <c r="B400" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A400" s="11"/>
+      <c r="B400" s="12"/>
       <c r="C400" s="8"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
@@ -5304,12 +5676,8 @@
       <c r="G400" s="5"/>
     </row>
     <row r="401" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="3">
-        <v>37529</v>
-      </c>
-      <c r="B401" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A401" s="11"/>
+      <c r="B401" s="12"/>
       <c r="C401" s="8"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
@@ -5317,12 +5685,8 @@
       <c r="G401" s="5"/>
     </row>
     <row r="402" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="3">
-        <v>37560</v>
-      </c>
-      <c r="B402" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A402" s="11"/>
+      <c r="B402" s="12"/>
       <c r="C402" s="8"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
@@ -5330,12 +5694,8 @@
       <c r="G402" s="5"/>
     </row>
     <row r="403" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="3">
-        <v>37590</v>
-      </c>
-      <c r="B403" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A403" s="11"/>
+      <c r="B403" s="12"/>
       <c r="C403" s="8"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
@@ -5343,12 +5703,8 @@
       <c r="G403" s="5"/>
     </row>
     <row r="404" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A404" s="3">
-        <v>37621</v>
-      </c>
-      <c r="B404" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A404" s="11"/>
+      <c r="B404" s="12"/>
       <c r="C404" s="8"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
@@ -5356,12 +5712,8 @@
       <c r="G404" s="5"/>
     </row>
     <row r="405" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A405" s="3">
-        <v>37652</v>
-      </c>
-      <c r="B405" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A405" s="11"/>
+      <c r="B405" s="12"/>
       <c r="C405" s="8"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
@@ -5369,12 +5721,8 @@
       <c r="G405" s="5"/>
     </row>
     <row r="406" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A406" s="3">
-        <v>37680</v>
-      </c>
-      <c r="B406" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A406" s="11"/>
+      <c r="B406" s="12"/>
       <c r="C406" s="8"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
@@ -5382,12 +5730,8 @@
       <c r="G406" s="5"/>
     </row>
     <row r="407" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A407" s="3">
-        <v>37711</v>
-      </c>
-      <c r="B407" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A407" s="11"/>
+      <c r="B407" s="12"/>
       <c r="C407" s="8"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
@@ -5395,12 +5739,8 @@
       <c r="G407" s="5"/>
     </row>
     <row r="408" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="3">
-        <v>37741</v>
-      </c>
-      <c r="B408" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A408" s="11"/>
+      <c r="B408" s="12"/>
       <c r="C408" s="8"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
@@ -5408,12 +5748,8 @@
       <c r="G408" s="5"/>
     </row>
     <row r="409" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A409" s="3">
-        <v>37772</v>
-      </c>
-      <c r="B409" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A409" s="11"/>
+      <c r="B409" s="12"/>
       <c r="C409" s="8"/>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
@@ -5421,12 +5757,8 @@
       <c r="G409" s="5"/>
     </row>
     <row r="410" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="3">
-        <v>37802</v>
-      </c>
-      <c r="B410" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A410" s="11"/>
+      <c r="B410" s="12"/>
       <c r="C410" s="8"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
@@ -5434,12 +5766,8 @@
       <c r="G410" s="5"/>
     </row>
     <row r="411" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="3">
-        <v>37833</v>
-      </c>
-      <c r="B411" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A411" s="11"/>
+      <c r="B411" s="12"/>
       <c r="C411" s="8"/>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
@@ -5447,12 +5775,8 @@
       <c r="G411" s="5"/>
     </row>
     <row r="412" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="3">
-        <v>37864</v>
-      </c>
-      <c r="B412" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A412" s="11"/>
+      <c r="B412" s="12"/>
       <c r="C412" s="8"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
@@ -5460,12 +5784,8 @@
       <c r="G412" s="5"/>
     </row>
     <row r="413" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A413" s="3">
-        <v>37894</v>
-      </c>
-      <c r="B413" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A413" s="11"/>
+      <c r="B413" s="12"/>
       <c r="C413" s="8"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
@@ -5473,12 +5793,8 @@
       <c r="G413" s="5"/>
     </row>
     <row r="414" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="3">
-        <v>37925</v>
-      </c>
-      <c r="B414" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A414" s="11"/>
+      <c r="B414" s="12"/>
       <c r="C414" s="8"/>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
@@ -5486,12 +5802,8 @@
       <c r="G414" s="5"/>
     </row>
     <row r="415" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="3">
-        <v>37955</v>
-      </c>
-      <c r="B415" s="4">
-        <v>4.9749999999999996</v>
-      </c>
+      <c r="A415" s="11"/>
+      <c r="B415" s="12"/>
       <c r="C415" s="8"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
@@ -5499,12 +5811,8 @@
       <c r="G415" s="5"/>
     </row>
     <row r="416" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="3">
-        <v>37986</v>
-      </c>
-      <c r="B416" s="4">
-        <v>5.2261904761904763</v>
-      </c>
+      <c r="A416" s="11"/>
+      <c r="B416" s="12"/>
       <c r="C416" s="8"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
@@ -5512,12 +5820,8 @@
       <c r="G416" s="5"/>
     </row>
     <row r="417" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="3">
-        <v>38017</v>
-      </c>
-      <c r="B417" s="4">
-        <v>5.25</v>
-      </c>
+      <c r="A417" s="11"/>
+      <c r="B417" s="12"/>
       <c r="C417" s="8"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
@@ -5525,12 +5829,8 @@
       <c r="G417" s="5"/>
     </row>
     <row r="418" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="3">
-        <v>38046</v>
-      </c>
-      <c r="B418" s="4">
-        <v>5.25</v>
-      </c>
+      <c r="A418" s="11"/>
+      <c r="B418" s="12"/>
       <c r="C418" s="8"/>
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
@@ -5538,12 +5838,8 @@
       <c r="G418" s="5"/>
     </row>
     <row r="419" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="3">
-        <v>38077</v>
-      </c>
-      <c r="B419" s="4">
-        <v>5.25</v>
-      </c>
+      <c r="A419" s="11"/>
+      <c r="B419" s="12"/>
       <c r="C419" s="8"/>
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
@@ -5551,12 +5847,8 @@
       <c r="G419" s="5"/>
     </row>
     <row r="420" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="3">
-        <v>38107</v>
-      </c>
-      <c r="B420" s="4">
-        <v>5.25</v>
-      </c>
+      <c r="A420" s="11"/>
+      <c r="B420" s="12"/>
       <c r="C420" s="8"/>
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
@@ -5564,12 +5856,8 @@
       <c r="G420" s="5"/>
     </row>
     <row r="421" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="3">
-        <v>38138</v>
-      </c>
-      <c r="B421" s="4">
-        <v>5.25</v>
-      </c>
+      <c r="A421" s="11"/>
+      <c r="B421" s="12"/>
       <c r="C421" s="8"/>
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
@@ -5577,12 +5865,8 @@
       <c r="G421" s="5"/>
     </row>
     <row r="422" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A422" s="3">
-        <v>38168</v>
-      </c>
-      <c r="B422" s="4">
-        <v>5.25</v>
-      </c>
+      <c r="A422" s="11"/>
+      <c r="B422" s="12"/>
       <c r="C422" s="8"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
@@ -5590,12 +5874,8 @@
       <c r="G422" s="5"/>
     </row>
     <row r="423" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A423" s="3">
-        <v>38199</v>
-      </c>
-      <c r="B423" s="4">
-        <v>5.25</v>
-      </c>
+      <c r="A423" s="11"/>
+      <c r="B423" s="12"/>
       <c r="C423" s="8"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
@@ -5603,12 +5883,8 @@
       <c r="G423" s="5"/>
     </row>
     <row r="424" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A424" s="3">
-        <v>38230</v>
-      </c>
-      <c r="B424" s="4">
-        <v>5.25</v>
-      </c>
+      <c r="A424" s="11"/>
+      <c r="B424" s="12"/>
       <c r="C424" s="8"/>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
@@ -5616,12 +5892,8 @@
       <c r="G424" s="5"/>
     </row>
     <row r="425" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A425" s="3">
-        <v>38260</v>
-      </c>
-      <c r="B425" s="4">
-        <v>5.25</v>
-      </c>
+      <c r="A425" s="11"/>
+      <c r="B425" s="12"/>
       <c r="C425" s="8"/>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
@@ -5629,12 +5901,8 @@
       <c r="G425" s="5"/>
     </row>
     <row r="426" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A426" s="3">
-        <v>38291</v>
-      </c>
-      <c r="B426" s="4">
-        <v>5.25</v>
-      </c>
+      <c r="A426" s="11"/>
+      <c r="B426" s="12"/>
       <c r="C426" s="8"/>
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
@@ -5642,12 +5910,8 @@
       <c r="G426" s="5"/>
     </row>
     <row r="427" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A427" s="3">
-        <v>38321</v>
-      </c>
-      <c r="B427" s="4">
-        <v>5.25</v>
-      </c>
+      <c r="A427" s="11"/>
+      <c r="B427" s="12"/>
       <c r="C427" s="8"/>
       <c r="D427" s="9"/>
       <c r="E427" s="9"/>
@@ -5655,12 +5919,8 @@
       <c r="G427" s="9"/>
     </row>
     <row r="428" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A428" s="3">
-        <v>38352</v>
-      </c>
-      <c r="B428" s="4">
-        <v>5.25</v>
-      </c>
+      <c r="A428" s="11"/>
+      <c r="B428" s="12"/>
       <c r="C428" s="8"/>
       <c r="D428" s="9"/>
       <c r="E428" s="9"/>
@@ -5668,12 +5928,8 @@
       <c r="G428" s="9"/>
     </row>
     <row r="429" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A429" s="3">
-        <v>38383</v>
-      </c>
-      <c r="B429" s="4">
-        <v>5.25</v>
-      </c>
+      <c r="A429" s="11"/>
+      <c r="B429" s="12"/>
       <c r="C429" s="8"/>
       <c r="D429" s="9"/>
       <c r="E429" s="9"/>
@@ -5681,12 +5937,8 @@
       <c r="G429" s="9"/>
     </row>
     <row r="430" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A430" s="3">
-        <v>38411</v>
-      </c>
-      <c r="B430" s="4">
-        <v>5.25</v>
-      </c>
+      <c r="A430" s="11"/>
+      <c r="B430" s="12"/>
       <c r="C430" s="8"/>
       <c r="D430" s="9"/>
       <c r="E430" s="9"/>
@@ -5694,12 +5946,8 @@
       <c r="G430" s="9"/>
     </row>
     <row r="431" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A431" s="3">
-        <v>38442</v>
-      </c>
-      <c r="B431" s="4">
-        <v>5.4880952380952381</v>
-      </c>
+      <c r="A431" s="11"/>
+      <c r="B431" s="12"/>
       <c r="C431" s="8"/>
       <c r="D431" s="9"/>
       <c r="E431" s="9"/>
@@ -5707,12 +5955,8 @@
       <c r="G431" s="9"/>
     </row>
     <row r="432" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A432" s="3">
-        <v>38472</v>
-      </c>
-      <c r="B432" s="4">
-        <v>5.5</v>
-      </c>
+      <c r="A432" s="11"/>
+      <c r="B432" s="12"/>
       <c r="C432" s="8"/>
       <c r="D432" s="9"/>
       <c r="E432" s="9"/>
@@ -5720,12 +5964,8 @@
       <c r="G432" s="9"/>
     </row>
     <row r="433" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A433" s="3">
-        <v>38503</v>
-      </c>
-      <c r="B433" s="4">
-        <v>5.5</v>
-      </c>
+      <c r="A433" s="11"/>
+      <c r="B433" s="12"/>
       <c r="C433" s="8"/>
       <c r="D433" s="9"/>
       <c r="E433" s="9"/>
@@ -5733,12 +5973,8 @@
       <c r="G433" s="9"/>
     </row>
     <row r="434" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A434" s="3">
-        <v>38533</v>
-      </c>
-      <c r="B434" s="4">
-        <v>5.5</v>
-      </c>
+      <c r="A434" s="11"/>
+      <c r="B434" s="12"/>
       <c r="C434" s="8"/>
       <c r="D434" s="9"/>
       <c r="E434" s="9"/>
@@ -5746,12 +5982,8 @@
       <c r="G434" s="9"/>
     </row>
     <row r="435" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A435" s="3">
-        <v>38564</v>
-      </c>
-      <c r="B435" s="4">
-        <v>5.5</v>
-      </c>
+      <c r="A435" s="11"/>
+      <c r="B435" s="12"/>
       <c r="C435" s="8"/>
       <c r="D435" s="9"/>
       <c r="E435" s="9"/>
@@ -5759,12 +5991,8 @@
       <c r="G435" s="9"/>
     </row>
     <row r="436" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="3">
-        <v>38595</v>
-      </c>
-      <c r="B436" s="4">
-        <v>5.5</v>
-      </c>
+      <c r="A436" s="11"/>
+      <c r="B436" s="12"/>
       <c r="C436" s="8"/>
       <c r="D436" s="9"/>
       <c r="E436" s="9"/>
@@ -5772,12 +6000,8 @@
       <c r="G436" s="9"/>
     </row>
     <row r="437" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="3">
-        <v>38625</v>
-      </c>
-      <c r="B437" s="4">
-        <v>5.5</v>
-      </c>
+      <c r="A437" s="11"/>
+      <c r="B437" s="12"/>
       <c r="C437" s="8"/>
       <c r="D437" s="9"/>
       <c r="E437" s="9"/>
@@ -5785,12 +6009,8 @@
       <c r="G437" s="9"/>
     </row>
     <row r="438" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="3">
-        <v>38656</v>
-      </c>
-      <c r="B438" s="4">
-        <v>5.5</v>
-      </c>
+      <c r="A438" s="11"/>
+      <c r="B438" s="12"/>
       <c r="C438" s="8"/>
       <c r="D438" s="9"/>
       <c r="E438" s="9"/>
@@ -5798,1790 +6018,500 @@
       <c r="G438" s="9"/>
     </row>
     <row r="439" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="3">
-        <v>38686</v>
-      </c>
-      <c r="B439" s="4">
-        <v>5.5</v>
-      </c>
+      <c r="A439" s="11"/>
+      <c r="B439" s="12"/>
       <c r="C439" s="8"/>
     </row>
     <row r="440" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="3">
-        <v>38717</v>
-      </c>
-      <c r="B440" s="4">
-        <v>5.5</v>
-      </c>
+      <c r="A440" s="11"/>
+      <c r="B440" s="12"/>
       <c r="C440" s="8"/>
     </row>
     <row r="441" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="3">
-        <v>38748</v>
-      </c>
-      <c r="B441" s="4">
-        <v>5.5</v>
-      </c>
+      <c r="A441" s="11"/>
+      <c r="B441" s="12"/>
       <c r="C441" s="8"/>
     </row>
     <row r="442" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="3">
-        <v>38776</v>
-      </c>
-      <c r="B442" s="4">
-        <v>5.5</v>
-      </c>
+      <c r="A442" s="11"/>
+      <c r="B442" s="12"/>
       <c r="C442" s="8"/>
     </row>
     <row r="443" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="3">
-        <v>38807</v>
-      </c>
-      <c r="B443" s="4">
-        <v>5.5</v>
-      </c>
+      <c r="A443" s="11"/>
+      <c r="B443" s="12"/>
       <c r="C443" s="8"/>
     </row>
     <row r="444" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="3">
-        <v>38837</v>
-      </c>
-      <c r="B444" s="4">
-        <v>5.5</v>
-      </c>
+      <c r="A444" s="11"/>
+      <c r="B444" s="12"/>
       <c r="C444" s="8"/>
     </row>
     <row r="445" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="3">
-        <v>38868</v>
-      </c>
-      <c r="B445" s="4">
-        <v>5.7282608695652177</v>
-      </c>
+      <c r="A445" s="11"/>
+      <c r="B445" s="12"/>
       <c r="C445" s="8"/>
     </row>
     <row r="446" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="3">
-        <v>38898</v>
-      </c>
-      <c r="B446" s="4">
-        <v>5.75</v>
-      </c>
+      <c r="A446" s="11"/>
+      <c r="B446" s="12"/>
       <c r="C446" s="8"/>
     </row>
     <row r="447" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="3">
-        <v>38929</v>
-      </c>
-      <c r="B447" s="4">
-        <v>5.75</v>
-      </c>
+      <c r="A447" s="11"/>
+      <c r="B447" s="12"/>
       <c r="C447" s="8"/>
     </row>
     <row r="448" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="3">
-        <v>38960</v>
-      </c>
-      <c r="B448" s="4">
-        <v>5.9891304347826084</v>
-      </c>
+      <c r="A448" s="11"/>
+      <c r="B448" s="12"/>
       <c r="C448" s="8"/>
     </row>
     <row r="449" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="3">
-        <v>38990</v>
-      </c>
-      <c r="B449" s="4">
-        <v>6</v>
-      </c>
+      <c r="A449" s="11"/>
+      <c r="B449" s="12"/>
       <c r="C449" s="8"/>
     </row>
     <row r="450" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A450" s="3">
-        <v>39021</v>
-      </c>
-      <c r="B450" s="4">
-        <v>6</v>
-      </c>
+      <c r="A450" s="11"/>
+      <c r="B450" s="12"/>
       <c r="C450" s="8"/>
     </row>
     <row r="451" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A451" s="3">
-        <v>39051</v>
-      </c>
-      <c r="B451" s="4">
-        <v>6.1931818181818183</v>
-      </c>
+      <c r="A451" s="11"/>
+      <c r="B451" s="12"/>
       <c r="C451" s="8"/>
     </row>
     <row r="452" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A452" s="3">
-        <v>39082</v>
-      </c>
-      <c r="B452" s="4">
-        <v>6.25</v>
-      </c>
+      <c r="A452" s="11"/>
+      <c r="B452" s="12"/>
       <c r="C452" s="8"/>
     </row>
     <row r="453" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A453" s="3">
-        <v>39113</v>
-      </c>
-      <c r="B453" s="4">
-        <v>6.25</v>
-      </c>
+      <c r="A453" s="11"/>
+      <c r="B453" s="12"/>
       <c r="C453" s="8"/>
     </row>
     <row r="454" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="3">
-        <v>39141</v>
-      </c>
-      <c r="B454" s="4">
-        <v>6.25</v>
-      </c>
+      <c r="A454" s="11"/>
+      <c r="B454" s="12"/>
       <c r="C454" s="8"/>
     </row>
     <row r="455" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A455" s="3">
-        <v>39172</v>
-      </c>
-      <c r="B455" s="4">
-        <v>6.25</v>
-      </c>
+      <c r="A455" s="11"/>
+      <c r="B455" s="12"/>
       <c r="C455" s="8"/>
     </row>
     <row r="456" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="3">
-        <v>39202</v>
-      </c>
-      <c r="B456" s="4">
-        <v>6.25</v>
-      </c>
+      <c r="A456" s="11"/>
+      <c r="B456" s="12"/>
       <c r="C456" s="8"/>
     </row>
     <row r="457" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="3">
-        <v>39233</v>
-      </c>
-      <c r="B457" s="4">
-        <v>6.25</v>
-      </c>
+      <c r="A457" s="11"/>
+      <c r="B457" s="13"/>
       <c r="C457" s="8"/>
     </row>
     <row r="458" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="3">
-        <v>39263</v>
-      </c>
-      <c r="B458" s="4">
-        <v>6.25</v>
-      </c>
+      <c r="A458" s="11"/>
+      <c r="B458" s="13"/>
       <c r="C458" s="8"/>
     </row>
     <row r="459" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A459" s="3">
-        <v>39294</v>
-      </c>
-      <c r="B459" s="4">
-        <v>6.25</v>
-      </c>
+      <c r="A459" s="11"/>
+      <c r="B459" s="13"/>
       <c r="C459" s="8"/>
     </row>
     <row r="460" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="3">
-        <v>39325</v>
-      </c>
-      <c r="B460" s="4">
-        <v>6.4545454545454541</v>
-      </c>
+      <c r="A460" s="11"/>
+      <c r="B460" s="13"/>
       <c r="C460" s="8"/>
     </row>
     <row r="461" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="3">
-        <v>39355</v>
-      </c>
-      <c r="B461" s="4">
-        <v>6.5</v>
-      </c>
+      <c r="A461" s="11"/>
+      <c r="B461" s="13"/>
       <c r="C461" s="8"/>
     </row>
     <row r="462" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="3">
-        <v>39386</v>
-      </c>
-      <c r="B462" s="4">
-        <v>6.5</v>
-      </c>
+      <c r="A462" s="11"/>
+      <c r="B462" s="13"/>
       <c r="C462" s="8"/>
     </row>
     <row r="463" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="3">
-        <v>39416</v>
-      </c>
-      <c r="B463" s="4">
-        <v>6.704088101503987</v>
-      </c>
+      <c r="A463" s="11"/>
+      <c r="B463" s="13"/>
       <c r="C463" s="8"/>
     </row>
     <row r="464" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="3">
-        <v>39447</v>
-      </c>
-      <c r="B464" s="4">
-        <v>6.748922534220462</v>
-      </c>
+      <c r="A464" s="11"/>
+      <c r="B464" s="13"/>
       <c r="C464" s="8"/>
     </row>
     <row r="465" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="3">
-        <v>39478</v>
-      </c>
-      <c r="B465" s="4">
-        <v>6.7498302811884514</v>
-      </c>
+      <c r="A465" s="11"/>
+      <c r="B465" s="13"/>
       <c r="C465" s="8"/>
     </row>
     <row r="466" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A466" s="3">
-        <v>39507</v>
-      </c>
-      <c r="B466" s="4">
-        <v>6.9642701148285182</v>
-      </c>
+      <c r="A466" s="11"/>
+      <c r="B466" s="13"/>
       <c r="C466" s="8"/>
     </row>
     <row r="467" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A467" s="3">
-        <v>39538</v>
-      </c>
-      <c r="B467" s="4">
-        <v>7.2237239370006838</v>
-      </c>
+      <c r="A467" s="11"/>
+      <c r="B467" s="13"/>
       <c r="C467" s="8"/>
     </row>
     <row r="468" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A468" s="3">
-        <v>39568</v>
-      </c>
-      <c r="B468" s="4">
-        <v>7.2497122614776925</v>
-      </c>
+      <c r="A468" s="11"/>
+      <c r="B468" s="13"/>
       <c r="C468" s="8"/>
     </row>
     <row r="469" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A469" s="3">
-        <v>39599</v>
-      </c>
-      <c r="B469" s="4">
-        <v>7.249974472248593</v>
-      </c>
+      <c r="A469" s="11"/>
+      <c r="B469" s="13"/>
       <c r="C469" s="8"/>
     </row>
     <row r="470" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="3">
-        <v>39629</v>
-      </c>
-      <c r="B470" s="4">
-        <v>7.2499874160159168</v>
-      </c>
+      <c r="A470" s="11"/>
+      <c r="B470" s="13"/>
       <c r="C470" s="8"/>
     </row>
     <row r="471" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="3">
-        <v>39660</v>
-      </c>
-      <c r="B471" s="4">
-        <v>7.2500167539868423</v>
-      </c>
+      <c r="A471" s="11"/>
+      <c r="B471" s="13"/>
       <c r="C471" s="8"/>
     </row>
     <row r="472" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="3">
-        <v>39691</v>
-      </c>
-      <c r="B472" s="4">
-        <v>7.2500020252139139</v>
-      </c>
+      <c r="A472" s="11"/>
+      <c r="B472" s="13"/>
       <c r="C472" s="8"/>
     </row>
     <row r="473" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="3">
-        <v>39721</v>
-      </c>
-      <c r="B473" s="4">
-        <v>7.0227272727272725</v>
-      </c>
+      <c r="A473" s="11"/>
+      <c r="B473" s="13"/>
       <c r="C473" s="8"/>
     </row>
     <row r="474" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="3">
-        <v>39752</v>
-      </c>
-      <c r="B474" s="4">
-        <v>6.1818181818181817</v>
-      </c>
+      <c r="A474" s="11"/>
+      <c r="B474" s="13"/>
       <c r="C474" s="8"/>
     </row>
     <row r="475" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="3">
-        <v>39782</v>
-      </c>
-      <c r="B475" s="4">
-        <v>5.3251632919660352</v>
-      </c>
+      <c r="A475" s="11"/>
+      <c r="B475" s="13"/>
       <c r="C475" s="8"/>
     </row>
     <row r="476" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="3">
-        <v>39813</v>
-      </c>
-      <c r="B476" s="4">
-        <v>4.345261211573237</v>
-      </c>
+      <c r="A476" s="11"/>
+      <c r="B476" s="13"/>
       <c r="C476" s="8"/>
     </row>
     <row r="477" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="3">
-        <v>39844</v>
-      </c>
-      <c r="B477" s="4">
-        <v>4.2500005432814199</v>
-      </c>
+      <c r="A477" s="11"/>
+      <c r="B477" s="13"/>
       <c r="C477" s="8"/>
     </row>
     <row r="478" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A478" s="3">
-        <v>39872</v>
-      </c>
-      <c r="B478" s="4">
-        <v>3.35</v>
-      </c>
+      <c r="A478" s="11"/>
+      <c r="B478" s="13"/>
       <c r="C478" s="8"/>
     </row>
     <row r="479" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="3">
-        <v>39903</v>
-      </c>
-      <c r="B479" s="4">
-        <v>3.2499785723178505</v>
-      </c>
+      <c r="A479" s="11"/>
+      <c r="B479" s="13"/>
       <c r="C479" s="8"/>
     </row>
     <row r="480" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A480" s="3">
-        <v>39933</v>
-      </c>
-      <c r="B480" s="4">
-        <v>3.0625707823036863</v>
-      </c>
+      <c r="A480" s="11"/>
+      <c r="B480" s="13"/>
       <c r="C480" s="8"/>
     </row>
     <row r="481" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A481" s="3">
-        <v>39964</v>
-      </c>
-      <c r="B481" s="4">
-        <v>3</v>
-      </c>
+      <c r="A481" s="11"/>
+      <c r="B481" s="13"/>
       <c r="C481" s="8"/>
     </row>
     <row r="482" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A482" s="3">
-        <v>39994</v>
-      </c>
-      <c r="B482" s="4">
-        <v>3.0000620694498248</v>
-      </c>
+      <c r="A482" s="11"/>
+      <c r="B482" s="13"/>
       <c r="C482" s="8"/>
     </row>
     <row r="483" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A483" s="3">
-        <v>40025</v>
-      </c>
-      <c r="B483" s="4">
-        <v>3</v>
-      </c>
+      <c r="A483" s="11"/>
+      <c r="B483" s="13"/>
       <c r="C483" s="8"/>
     </row>
     <row r="484" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="3">
-        <v>40056</v>
-      </c>
-      <c r="B484" s="4">
-        <v>3</v>
-      </c>
+      <c r="A484" s="11"/>
+      <c r="B484" s="13"/>
       <c r="C484" s="8"/>
     </row>
     <row r="485" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="3">
-        <v>40086</v>
-      </c>
-      <c r="B485" s="4">
-        <v>3</v>
-      </c>
+      <c r="A485" s="11"/>
+      <c r="B485" s="13"/>
       <c r="C485" s="8"/>
     </row>
     <row r="486" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A486" s="3">
-        <v>40117</v>
-      </c>
-      <c r="B486" s="4">
-        <v>3.2142857142857144</v>
-      </c>
+      <c r="A486" s="11"/>
+      <c r="B486" s="13"/>
       <c r="C486" s="8"/>
     </row>
     <row r="487" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A487" s="3">
-        <v>40147</v>
-      </c>
-      <c r="B487" s="4">
-        <v>3.4761904761904763</v>
-      </c>
+      <c r="A487" s="11"/>
+      <c r="B487" s="13"/>
       <c r="C487" s="8"/>
     </row>
     <row r="488" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A488" s="3">
-        <v>40178</v>
-      </c>
-      <c r="B488" s="4">
-        <v>3.7380952380952381</v>
-      </c>
+      <c r="A488" s="11"/>
+      <c r="B488" s="13"/>
       <c r="C488" s="8"/>
     </row>
     <row r="489" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="3">
-        <v>40209</v>
-      </c>
-      <c r="B489" s="4">
-        <v>3.75</v>
-      </c>
+      <c r="A489" s="11"/>
+      <c r="B489" s="13"/>
       <c r="C489" s="8"/>
     </row>
     <row r="490" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="3">
-        <v>40237</v>
-      </c>
-      <c r="B490" s="4">
-        <v>3.75</v>
-      </c>
+      <c r="A490" s="11"/>
+      <c r="B490" s="13"/>
       <c r="C490" s="8"/>
     </row>
     <row r="491" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="3">
-        <v>40268</v>
-      </c>
-      <c r="B491" s="4">
-        <v>3.9775</v>
-      </c>
+      <c r="A491" s="11"/>
+      <c r="B491" s="13"/>
       <c r="C491" s="8"/>
     </row>
     <row r="492" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="3">
-        <v>40298</v>
-      </c>
-      <c r="B492" s="4">
-        <v>4.2225000000000001</v>
-      </c>
+      <c r="A492" s="11"/>
+      <c r="B492" s="13"/>
       <c r="C492" s="8"/>
     </row>
     <row r="493" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="3">
-        <v>40329</v>
-      </c>
-      <c r="B493" s="4">
-        <v>4.4749999999999996</v>
-      </c>
+      <c r="A493" s="11"/>
+      <c r="B493" s="13"/>
       <c r="C493" s="8"/>
     </row>
     <row r="494" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="3">
-        <v>40359</v>
-      </c>
-      <c r="B494" s="4">
-        <v>4.5</v>
-      </c>
+      <c r="A494" s="11"/>
+      <c r="B494" s="13"/>
       <c r="C494" s="8"/>
     </row>
     <row r="495" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="3">
-        <v>40390</v>
-      </c>
-      <c r="B495" s="4">
-        <v>4.5</v>
-      </c>
+      <c r="A495" s="11"/>
+      <c r="B495" s="13"/>
       <c r="C495" s="8"/>
     </row>
     <row r="496" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="3">
-        <v>40421</v>
-      </c>
-      <c r="B496" s="4">
-        <v>4.5</v>
-      </c>
+      <c r="A496" s="11"/>
+      <c r="B496" s="13"/>
       <c r="C496" s="8"/>
     </row>
     <row r="497" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="3">
-        <v>40451</v>
-      </c>
-      <c r="B497" s="4">
-        <v>4.5</v>
-      </c>
+      <c r="A497" s="11"/>
+      <c r="B497" s="13"/>
       <c r="C497" s="8"/>
     </row>
     <row r="498" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="3">
-        <v>40482</v>
-      </c>
-      <c r="B498" s="4">
-        <v>4.5</v>
-      </c>
+      <c r="A498" s="11"/>
+      <c r="B498" s="13"/>
       <c r="C498" s="8"/>
     </row>
     <row r="499" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="3">
-        <v>40512</v>
-      </c>
-      <c r="B499" s="4">
-        <v>4.7275</v>
-      </c>
+      <c r="A499" s="11"/>
+      <c r="B499" s="13"/>
       <c r="C499" s="8"/>
     </row>
     <row r="500" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="3">
-        <v>40543</v>
-      </c>
-      <c r="B500" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A500" s="11"/>
+      <c r="B500" s="13"/>
       <c r="C500" s="8"/>
     </row>
     <row r="501" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="3">
-        <v>40574</v>
-      </c>
-      <c r="B501" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A501" s="11"/>
+      <c r="B501" s="13"/>
       <c r="C501" s="8"/>
     </row>
     <row r="502" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="3">
-        <v>40602</v>
-      </c>
-      <c r="B502" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A502" s="11"/>
+      <c r="B502" s="13"/>
       <c r="C502" s="8"/>
     </row>
     <row r="503" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="3">
-        <v>40633</v>
-      </c>
-      <c r="B503" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A503" s="11"/>
+      <c r="B503" s="13"/>
       <c r="C503" s="8"/>
     </row>
     <row r="504" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="3">
-        <v>40663</v>
-      </c>
-      <c r="B504" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A504" s="11"/>
+      <c r="B504" s="13"/>
       <c r="C504" s="8"/>
     </row>
     <row r="505" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="3">
-        <v>40694</v>
-      </c>
-      <c r="B505" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A505" s="11"/>
+      <c r="B505" s="13"/>
       <c r="C505" s="8"/>
     </row>
     <row r="506" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="3">
-        <v>40724</v>
-      </c>
-      <c r="B506" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A506" s="11"/>
+      <c r="B506" s="13"/>
       <c r="C506" s="8"/>
     </row>
     <row r="507" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="3">
-        <v>40755</v>
-      </c>
-      <c r="B507" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A507" s="11"/>
+      <c r="B507" s="13"/>
       <c r="C507" s="9"/>
     </row>
     <row r="508" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="3">
-        <v>40786</v>
-      </c>
-      <c r="B508" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A508" s="11"/>
+      <c r="B508" s="13"/>
       <c r="C508" s="9"/>
     </row>
     <row r="509" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="3">
-        <v>40816</v>
-      </c>
-      <c r="B509" s="4">
-        <v>4.75</v>
-      </c>
+      <c r="A509" s="11"/>
+      <c r="B509" s="13"/>
       <c r="C509" s="9"/>
     </row>
     <row r="510" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="3">
-        <v>40847</v>
-      </c>
-      <c r="B510" s="5">
-        <v>4.75</v>
-      </c>
+      <c r="A510" s="11"/>
+      <c r="B510" s="13"/>
       <c r="C510" s="9"/>
     </row>
     <row r="511" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="3">
-        <v>40877</v>
-      </c>
-      <c r="B511" s="5">
-        <v>4.5125000000000002</v>
-      </c>
+      <c r="A511" s="11"/>
+      <c r="B511" s="13"/>
       <c r="C511" s="9"/>
     </row>
     <row r="512" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="3">
-        <v>40908</v>
-      </c>
-      <c r="B512" s="4">
-        <v>4.3</v>
-      </c>
+      <c r="A512" s="11"/>
+      <c r="B512" s="13"/>
       <c r="C512" s="9"/>
     </row>
     <row r="513" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="3">
-        <v>40939</v>
-      </c>
-      <c r="B513" s="4">
-        <v>4.25</v>
-      </c>
+      <c r="A513" s="11"/>
+      <c r="B513" s="13"/>
       <c r="C513" s="9"/>
     </row>
     <row r="514" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="3">
-        <v>40968</v>
-      </c>
-      <c r="B514" s="4">
-        <v>4.25</v>
-      </c>
+      <c r="A514" s="11"/>
+      <c r="B514" s="13"/>
       <c r="C514" s="9"/>
     </row>
     <row r="515" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="3">
-        <v>40999</v>
-      </c>
-      <c r="B515" s="4">
-        <v>4.25</v>
-      </c>
+      <c r="A515" s="11"/>
+      <c r="B515" s="13"/>
       <c r="C515" s="9"/>
     </row>
     <row r="516" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="3">
-        <v>41029</v>
-      </c>
-      <c r="B516" s="4">
-        <v>4.25</v>
-      </c>
+      <c r="A516" s="11"/>
+      <c r="B516" s="13"/>
       <c r="C516" s="9"/>
     </row>
     <row r="517" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="3">
-        <v>41060</v>
-      </c>
-      <c r="B517" s="4">
-        <v>3.7725</v>
-      </c>
+      <c r="A517" s="11"/>
+      <c r="B517" s="13"/>
       <c r="C517" s="9"/>
     </row>
     <row r="518" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="3">
-        <v>41090</v>
-      </c>
-      <c r="B518" s="4">
-        <v>3.5375000000000001</v>
-      </c>
+      <c r="A518" s="11"/>
+      <c r="B518" s="13"/>
       <c r="C518" s="9"/>
     </row>
     <row r="519" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="3">
-        <v>41121</v>
-      </c>
-      <c r="B519" s="4">
-        <v>3.5</v>
-      </c>
+      <c r="A519" s="11"/>
+      <c r="B519" s="13"/>
     </row>
     <row r="520" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="3">
-        <v>41152</v>
-      </c>
-      <c r="B520" s="4">
-        <v>3.5</v>
-      </c>
+      <c r="A520" s="11"/>
+      <c r="B520" s="13"/>
     </row>
     <row r="521" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="3">
-        <v>41182</v>
-      </c>
-      <c r="B521" s="4">
-        <v>3.5</v>
-      </c>
+      <c r="A521" s="11"/>
+      <c r="B521" s="13"/>
     </row>
     <row r="522" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="3">
-        <v>41213</v>
-      </c>
-      <c r="B522" s="4">
-        <v>3.2725</v>
-      </c>
+      <c r="A522" s="11"/>
+      <c r="B522" s="13"/>
     </row>
     <row r="523" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="3">
-        <v>41243</v>
-      </c>
-      <c r="B523" s="4">
-        <v>3.25</v>
-      </c>
+      <c r="A523" s="11"/>
+      <c r="B523" s="13"/>
     </row>
     <row r="524" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="3">
-        <v>41274</v>
-      </c>
-      <c r="B524" s="4">
-        <v>3.0274999999999999</v>
-      </c>
+      <c r="A524" s="11"/>
+      <c r="B524" s="13"/>
     </row>
     <row r="525" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="3">
-        <v>41305</v>
-      </c>
-      <c r="B525" s="4">
-        <v>3</v>
-      </c>
+      <c r="A525" s="11"/>
+      <c r="B525" s="13"/>
     </row>
     <row r="526" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="3">
-        <v>41333</v>
-      </c>
-      <c r="B526" s="4">
-        <v>3</v>
-      </c>
+      <c r="A526" s="11"/>
+      <c r="B526" s="13"/>
     </row>
     <row r="527" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="3">
-        <v>41364</v>
-      </c>
-      <c r="B527" s="4">
-        <v>3</v>
-      </c>
+      <c r="A527" s="11"/>
+      <c r="B527" s="13"/>
     </row>
     <row r="528" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="3">
-        <v>41394</v>
-      </c>
-      <c r="B528" s="4">
-        <v>3</v>
-      </c>
+      <c r="A528" s="11"/>
+      <c r="B528" s="13"/>
     </row>
     <row r="529" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="3">
-        <v>41425</v>
-      </c>
-      <c r="B529" s="4">
-        <v>2.8</v>
-      </c>
+      <c r="A529" s="11"/>
+      <c r="B529" s="13"/>
     </row>
     <row r="530" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="3">
-        <v>41455</v>
-      </c>
-      <c r="B530" s="4">
-        <v>2.75</v>
-      </c>
+      <c r="A530" s="11"/>
+      <c r="B530" s="13"/>
     </row>
     <row r="531" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="3">
-        <v>41486</v>
-      </c>
-      <c r="B531" s="4">
-        <v>2.75</v>
-      </c>
+      <c r="A531" s="11"/>
+      <c r="B531" s="13"/>
     </row>
     <row r="532" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="3">
-        <v>41517</v>
-      </c>
-      <c r="B532" s="4">
-        <v>2.5499999999999998</v>
-      </c>
+      <c r="A532" s="11"/>
+      <c r="B532" s="13"/>
     </row>
     <row r="533" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="3">
-        <v>41547</v>
-      </c>
-      <c r="B533" s="4">
-        <v>2.5</v>
-      </c>
+      <c r="A533" s="11"/>
+      <c r="B533" s="13"/>
     </row>
     <row r="534" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="3">
-        <v>41578</v>
-      </c>
-      <c r="B534" s="4">
-        <v>2.5</v>
-      </c>
+      <c r="A534" s="11"/>
+      <c r="B534" s="13"/>
     </row>
     <row r="535" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A535" s="3">
-        <v>41608</v>
-      </c>
-      <c r="B535" s="4">
-        <v>2.5</v>
-      </c>
+      <c r="A535" s="11"/>
+      <c r="B535" s="13"/>
     </row>
     <row r="536" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="3">
-        <v>41639</v>
-      </c>
-      <c r="B536" s="4">
-        <v>2.5</v>
-      </c>
+      <c r="A536" s="11"/>
+      <c r="B536" s="13"/>
     </row>
     <row r="537" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A537" s="3">
-        <v>41670</v>
-      </c>
-      <c r="B537" s="4">
-        <v>2.5</v>
-      </c>
+      <c r="A537" s="11"/>
+      <c r="B537" s="13"/>
     </row>
     <row r="538" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="3">
-        <v>41698</v>
-      </c>
-      <c r="B538" s="4">
-        <v>2.5</v>
-      </c>
+      <c r="A538" s="11"/>
+      <c r="B538" s="13"/>
     </row>
     <row r="539" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="3">
-        <v>41729</v>
-      </c>
-      <c r="B539" s="4">
-        <v>2.5</v>
-      </c>
+      <c r="A539" s="11"/>
+      <c r="B539" s="13"/>
     </row>
     <row r="540" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="3">
-        <v>41759</v>
-      </c>
-      <c r="B540" s="4">
-        <v>2.5</v>
-      </c>
+      <c r="A540" s="11"/>
+      <c r="B540" s="13"/>
     </row>
     <row r="541" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="3">
-        <v>41790</v>
-      </c>
-      <c r="B541" s="4">
-        <v>2.5</v>
-      </c>
+      <c r="A541" s="11"/>
+      <c r="B541" s="13"/>
     </row>
     <row r="542" spans="1:2" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="3">
-        <v>41820</v>
-      </c>
-      <c r="B542" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A543" s="3">
-        <v>41851</v>
-      </c>
-      <c r="B543" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A544" s="3">
-        <v>41882</v>
-      </c>
-      <c r="B544" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A545" s="3">
-        <v>41912</v>
-      </c>
-      <c r="B545" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A546" s="3">
-        <v>41943</v>
-      </c>
-      <c r="B546" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A547" s="3">
-        <v>41973</v>
-      </c>
-      <c r="B547" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A548" s="3">
-        <v>42004</v>
-      </c>
-      <c r="B548" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A549" s="3">
-        <v>42035</v>
-      </c>
-      <c r="B549" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A550" s="3">
-        <v>42063</v>
-      </c>
-      <c r="B550" s="4">
-        <v>2.2749999999999999</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A551" s="3">
-        <v>42094</v>
-      </c>
-      <c r="B551" s="4">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A552" s="3">
-        <v>42124</v>
-      </c>
-      <c r="B552" s="4">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A553" s="3">
-        <v>42155</v>
-      </c>
-      <c r="B553" s="4">
-        <v>2.0350000000000001</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A554" s="3">
-        <v>42185</v>
-      </c>
-      <c r="B554" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A555" s="3">
-        <v>42216</v>
-      </c>
-      <c r="B555" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A556" s="3">
-        <v>42247</v>
-      </c>
-      <c r="B556" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A557" s="3">
-        <v>42277</v>
-      </c>
-      <c r="B557" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A558" s="3">
-        <v>42308</v>
-      </c>
-      <c r="B558" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A559" s="3">
-        <v>42338</v>
-      </c>
-      <c r="B559" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A560" s="3">
-        <v>42369</v>
-      </c>
-      <c r="B560" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A561" s="3">
-        <v>42400</v>
-      </c>
-      <c r="B561" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A562" s="3">
-        <v>42429</v>
-      </c>
-      <c r="B562" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A563" s="3">
-        <v>42460</v>
-      </c>
-      <c r="B563" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A564" s="3">
-        <v>42490</v>
-      </c>
-      <c r="B564" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A565" s="3">
-        <v>42521</v>
-      </c>
-      <c r="B565" s="4">
-        <v>1.77</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A566" s="3">
-        <v>42551</v>
-      </c>
-      <c r="B566" s="4">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A567" s="3">
-        <v>42582</v>
-      </c>
-      <c r="B567" s="4">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A568" s="3">
-        <v>42613</v>
-      </c>
-      <c r="B568" s="4">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A569" s="3">
-        <v>42643</v>
-      </c>
-      <c r="B569" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A570" s="3">
-        <v>42674</v>
-      </c>
-      <c r="B570" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A571" s="3">
-        <v>42704</v>
-      </c>
-      <c r="B571" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A572" s="3">
-        <v>42735</v>
-      </c>
-      <c r="B572" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A573" s="3">
-        <v>42766</v>
-      </c>
-      <c r="B573" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A574" s="3">
-        <v>42794</v>
-      </c>
-      <c r="B574" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A575" s="3">
-        <v>42825</v>
-      </c>
-      <c r="B575" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A576" s="3">
-        <v>42855</v>
-      </c>
-      <c r="B576" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A577" s="3">
-        <v>42886</v>
-      </c>
-      <c r="B577" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A578" s="3">
-        <v>42916</v>
-      </c>
-      <c r="B578" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A579" s="3">
-        <v>42947</v>
-      </c>
-      <c r="B579" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A580" s="3">
-        <v>42978</v>
-      </c>
-      <c r="B580" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A581" s="3">
-        <v>43008</v>
-      </c>
-      <c r="B581" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A582" s="3">
-        <v>43039</v>
-      </c>
-      <c r="B582" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A583" s="3">
-        <v>43069</v>
-      </c>
-      <c r="B583" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A584" s="3">
-        <v>43100</v>
-      </c>
-      <c r="B584" s="10">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A585" s="3">
-        <v>43131</v>
-      </c>
-      <c r="B585" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A586" s="3">
-        <v>43159</v>
-      </c>
-      <c r="B586" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A587" s="3">
-        <v>43190</v>
-      </c>
-      <c r="B587" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A588" s="3">
-        <v>43220</v>
-      </c>
-      <c r="B588" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A589" s="3">
-        <v>43251</v>
-      </c>
-      <c r="B589" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A590" s="3">
-        <v>43281</v>
-      </c>
-      <c r="B590" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A591" s="3">
-        <v>43312</v>
-      </c>
-      <c r="B591" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A592" s="3">
-        <v>43343</v>
-      </c>
-      <c r="B592" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A593" s="3">
-        <v>43373</v>
-      </c>
-      <c r="B593" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A594" s="3">
-        <v>43404</v>
-      </c>
-      <c r="B594" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A595" s="3">
-        <v>43434</v>
-      </c>
-      <c r="B595" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A596" s="3">
-        <v>43465</v>
-      </c>
-      <c r="B596" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A597" s="3">
-        <v>43496</v>
-      </c>
-      <c r="B597" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A598" s="3">
-        <v>43524</v>
-      </c>
-      <c r="B598" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A599" s="3">
-        <v>43555</v>
-      </c>
-      <c r="B599" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A600" s="3">
-        <v>43585</v>
-      </c>
-      <c r="B600" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A601" s="3">
-        <v>43616</v>
-      </c>
-      <c r="B601" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A602" s="11">
-        <v>43646</v>
-      </c>
-      <c r="B602" s="4">
-        <v>1.28</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A603" s="11">
-        <v>43677</v>
-      </c>
-      <c r="B603" s="4">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A604" s="14">
-        <v>43708</v>
-      </c>
-      <c r="B604" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A605" s="14">
-        <v>43738</v>
-      </c>
-      <c r="B605" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A606" s="15">
-        <v>43769</v>
-      </c>
-      <c r="B606" s="13">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A607" s="16">
-        <v>43799</v>
-      </c>
-      <c r="B607" s="13">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A608" s="17">
-        <v>43830</v>
-      </c>
-      <c r="B608" s="13">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A609" s="18">
-        <v>43861</v>
-      </c>
-      <c r="B609" s="13">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A610" s="19">
-        <v>43890</v>
-      </c>
-      <c r="B610" s="13">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A611" s="20">
-        <v>43921</v>
-      </c>
-      <c r="B611" s="13">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A612" s="21">
-        <v>43951</v>
-      </c>
-      <c r="B612" s="13">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A613" s="22">
-        <v>43982</v>
-      </c>
-      <c r="B613" s="13">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A614" s="23">
-        <v>44012</v>
-      </c>
-      <c r="B614" s="13">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A615" s="24">
-        <v>44043</v>
-      </c>
-      <c r="B615" s="13">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A616" s="25">
-        <v>44074</v>
-      </c>
-      <c r="B616" s="13">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B617" s="12"/>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B618" s="12"/>
-    </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B619" s="12"/>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B620" s="12"/>
-    </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B621" s="12"/>
-    </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B622" s="12"/>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B623" s="12"/>
-    </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B624" s="12"/>
-    </row>
-    <row r="625" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B625" s="12"/>
-    </row>
-    <row r="626" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B626" s="12"/>
-    </row>
-    <row r="627" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B627" s="12"/>
-    </row>
-    <row r="628" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B628" s="12"/>
-    </row>
-    <row r="629" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B629" s="12"/>
-    </row>
-    <row r="630" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B630" s="12"/>
-    </row>
-    <row r="631" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B631" s="12"/>
-    </row>
-    <row r="632" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B632" s="12"/>
-    </row>
-    <row r="633" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B633" s="12"/>
-    </row>
-    <row r="634" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B634" s="12"/>
-    </row>
-    <row r="635" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B635" s="12"/>
-    </row>
-    <row r="636" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B636" s="12"/>
-    </row>
-    <row r="637" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B637" s="12"/>
-    </row>
-    <row r="638" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B638" s="12"/>
-    </row>
-    <row r="639" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B639" s="12"/>
-    </row>
-    <row r="640" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B640" s="12"/>
-    </row>
-    <row r="641" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B641" s="12"/>
-    </row>
-    <row r="642" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B642" s="12"/>
-    </row>
-    <row r="643" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B643" s="12"/>
-    </row>
-    <row r="644" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B644" s="12"/>
-    </row>
-    <row r="645" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B645" s="12"/>
-    </row>
-    <row r="646" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B646" s="12"/>
-    </row>
-    <row r="647" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B647" s="12"/>
-    </row>
-    <row r="648" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B648" s="12"/>
-    </row>
-    <row r="649" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B649" s="12"/>
-    </row>
-    <row r="650" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B650" s="12"/>
-    </row>
-    <row r="651" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B651" s="12"/>
-    </row>
-    <row r="652" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B652" s="12"/>
-    </row>
-    <row r="653" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B653" s="12"/>
-    </row>
-    <row r="654" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B654" s="12"/>
-    </row>
-    <row r="655" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B655" s="12"/>
-    </row>
-    <row r="656" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B656" s="12"/>
-    </row>
-    <row r="657" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B657" s="12"/>
-    </row>
-    <row r="658" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B658" s="12"/>
-    </row>
-    <row r="659" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B659" s="12"/>
-    </row>
-    <row r="660" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B660" s="12"/>
-    </row>
-    <row r="661" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B661" s="12"/>
-    </row>
-    <row r="662" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B662" s="12"/>
-    </row>
-    <row r="663" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B663" s="12"/>
-    </row>
-    <row r="664" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B664" s="12"/>
-    </row>
-    <row r="665" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B665" s="12"/>
-    </row>
-    <row r="666" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B666" s="12"/>
-    </row>
-    <row r="667" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B667" s="12"/>
-    </row>
-    <row r="668" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B668" s="12"/>
-    </row>
-    <row r="669" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B669" s="12"/>
-    </row>
-    <row r="670" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B670" s="12"/>
-    </row>
-    <row r="671" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B671" s="12"/>
-    </row>
-    <row r="672" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B672" s="12"/>
-    </row>
-    <row r="673" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B673" s="12"/>
-    </row>
-    <row r="674" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B674" s="12"/>
-    </row>
-    <row r="675" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B675" s="12"/>
-    </row>
-    <row r="676" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B676" s="12"/>
-    </row>
-    <row r="677" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B677" s="12"/>
-    </row>
-    <row r="678" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B678" s="12"/>
-    </row>
-    <row r="679" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B679" s="12"/>
-    </row>
-    <row r="680" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B680" s="12"/>
-    </row>
-    <row r="681" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B681" s="12"/>
-    </row>
-    <row r="682" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B682" s="12"/>
-    </row>
-    <row r="683" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B683" s="12"/>
-    </row>
-    <row r="684" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B684" s="12"/>
-    </row>
-    <row r="685" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B685" s="12"/>
-    </row>
-    <row r="686" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B686" s="12"/>
-    </row>
-    <row r="687" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B687" s="12"/>
-    </row>
-    <row r="688" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B688" s="12"/>
-    </row>
-    <row r="689" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B689" s="12"/>
-    </row>
-    <row r="690" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B690" s="12"/>
-    </row>
-    <row r="691" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B691" s="12"/>
-    </row>
-    <row r="692" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B692" s="12"/>
-    </row>
-    <row r="693" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B693" s="12"/>
-    </row>
-    <row r="694" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B694" s="12"/>
-    </row>
-    <row r="695" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B695" s="12"/>
-    </row>
-    <row r="696" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B696" s="12"/>
-    </row>
-    <row r="697" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B697" s="12"/>
-    </row>
-    <row r="698" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B698" s="12"/>
-    </row>
-    <row r="699" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B699" s="12"/>
-    </row>
-    <row r="700" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B700" s="12"/>
-    </row>
-    <row r="701" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B701" s="12"/>
-    </row>
-    <row r="702" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B702" s="12"/>
-    </row>
-    <row r="703" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B703" s="12"/>
-    </row>
-    <row r="704" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B704" s="12"/>
-    </row>
-    <row r="705" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B705" s="12"/>
-    </row>
-    <row r="706" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B706" s="12"/>
-    </row>
-    <row r="707" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B707" s="12"/>
-    </row>
-    <row r="708" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B708" s="12"/>
-    </row>
-    <row r="709" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B709" s="12"/>
-    </row>
-    <row r="710" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B710" s="12"/>
+      <c r="A542" s="11"/>
+      <c r="B542" s="13"/>
     </row>
   </sheetData>
   <printOptions headings="1" gridLines="1"/>
